--- a/outputs-r202/test-g__Sodaliphilus.xlsx
+++ b/outputs-r202/test-g__Sodaliphilus.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="85">
   <si>
     <t>Row</t>
   </si>
@@ -289,7 +289,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -299,14 +299,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,4901 +378,4901 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AF1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AH1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AI1" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AK1" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AL1" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AM1" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AN1" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AO1" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AP1" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AR1" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AS1" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AT1" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AU1" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AV1" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AW1" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AX1" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AY1" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="AZ1" s="3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
+      <c r="A2" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>2.2204442742696123e-14</v>
+        <v>5.7760221603478603e-07</v>
       </c>
       <c r="C2">
-        <v>2.2204442742696123e-14</v>
+        <v>2.2205079546530576e-14</v>
       </c>
       <c r="D2">
-        <v>2.2204442742696123e-14</v>
+        <v>2.2205079546530576e-14</v>
       </c>
       <c r="E2">
-        <v>2.2204442742696123e-14</v>
+        <v>2.2205079546530576e-14</v>
       </c>
       <c r="F2">
-        <v>2.2204442742696123e-14</v>
+        <v>2.2205079546530576e-14</v>
       </c>
       <c r="G2">
-        <v>2.2204442742696123e-14</v>
+        <v>2.2205079546530576e-14</v>
       </c>
       <c r="H2">
-        <v>2.2204442742696123e-14</v>
+        <v>2.2205079546530576e-14</v>
       </c>
       <c r="I2">
-        <v>2.2204442742696123e-14</v>
+        <v>2.2205079546530576e-14</v>
       </c>
       <c r="J2">
-        <v>2.2204442742696123e-14</v>
+        <v>2.2205079546530576e-14</v>
       </c>
       <c r="K2">
-        <v>2.2204442742696123e-14</v>
+        <v>2.2205079546530576e-14</v>
       </c>
       <c r="L2">
-        <v>2.2204442742696123e-14</v>
+        <v>2.2205079546530576e-14</v>
       </c>
       <c r="M2">
-        <v>0.99996002622581048</v>
+        <v>2.2205079546530576e-14</v>
       </c>
       <c r="N2">
-        <v>2.2204442742696123e-14</v>
+        <v>2.2205079546530576e-14</v>
       </c>
       <c r="O2">
-        <v>2.2204442742696123e-14</v>
+        <v>0.011809049327711076</v>
       </c>
       <c r="P2">
-        <v>2.2204442742696123e-14</v>
+        <v>2.2205079546530576e-14</v>
       </c>
       <c r="Q2">
-        <v>2.2204442742696123e-14</v>
+        <v>2.2205079546530576e-14</v>
       </c>
       <c r="R2">
-        <v>2.2204442742696123e-14</v>
+        <v>2.2205079546530576e-14</v>
       </c>
       <c r="S2">
-        <v>1.1509301297136071e-13</v>
+        <v>0.96496800813558414</v>
       </c>
       <c r="T2">
-        <v>2.2204442742696123e-14</v>
+        <v>2.2205079546530576e-14</v>
       </c>
       <c r="U2">
-        <v>2.2204442742696123e-14</v>
+        <v>2.2205079546530576e-14</v>
       </c>
       <c r="V2">
-        <v>2.2204442742696123e-14</v>
+        <v>2.2205079546530576e-14</v>
       </c>
       <c r="W2">
-        <v>2.2204442742696123e-14</v>
+        <v>2.2205079546530576e-14</v>
       </c>
       <c r="X2">
-        <v>2.2204442742696123e-14</v>
+        <v>2.2205079546530576e-14</v>
       </c>
       <c r="Y2">
-        <v>2.2204442742696123e-14</v>
+        <v>2.2205079546530576e-14</v>
       </c>
       <c r="Z2">
-        <v>2.2204442742696123e-14</v>
+        <v>2.2205079546530576e-14</v>
       </c>
       <c r="AA2">
-        <v>2.2204442742696123e-14</v>
+        <v>2.2205079546530576e-14</v>
       </c>
       <c r="AB2">
-        <v>6.5869755920346287e-08</v>
+        <v>6.3724427575548163e-09</v>
       </c>
       <c r="AC2">
-        <v>2.2204442742696123e-14</v>
+        <v>2.2205079546530576e-14</v>
       </c>
       <c r="AD2">
-        <v>2.2204442742696123e-14</v>
+        <v>2.2205079546530576e-14</v>
       </c>
       <c r="AE2">
-        <v>2.2204442742696123e-14</v>
+        <v>2.2205079546530576e-14</v>
       </c>
       <c r="AF2">
-        <v>2.2204442742696123e-14</v>
+        <v>2.2205079546530576e-14</v>
       </c>
       <c r="AG2">
-        <v>2.2204442742696123e-14</v>
+        <v>1.3689590356343091e-07</v>
       </c>
       <c r="AH2">
-        <v>2.2204442742696123e-14</v>
+        <v>2.2205079546530576e-14</v>
       </c>
       <c r="AI2">
-        <v>2.2204442742696123e-14</v>
+        <v>0.011756548532889557</v>
       </c>
       <c r="AJ2">
-        <v>2.2204442742696123e-14</v>
+        <v>2.2205079546530576e-14</v>
       </c>
       <c r="AK2">
-        <v>2.2204442742696123e-14</v>
+        <v>2.2205079546530576e-14</v>
       </c>
       <c r="AL2">
-        <v>2.2204442742696123e-14</v>
+        <v>2.2205079546530576e-14</v>
       </c>
       <c r="AM2">
-        <v>2.2204442742696123e-14</v>
+        <v>2.2205079546530576e-14</v>
       </c>
       <c r="AN2">
-        <v>3.0005862492017911e-05</v>
+        <v>0.011465153907673218</v>
       </c>
       <c r="AO2">
-        <v>2.2204442742696123e-14</v>
+        <v>2.2205079546530576e-14</v>
       </c>
       <c r="AP2">
-        <v>2.2204442742696123e-14</v>
+        <v>2.2205079546530576e-14</v>
       </c>
       <c r="AQ2">
-        <v>2.2204442742696123e-14</v>
+        <v>2.2205079546530576e-14</v>
       </c>
       <c r="AR2">
-        <v>2.2204442742696123e-14</v>
+        <v>2.2205079546530576e-14</v>
       </c>
       <c r="AS2">
-        <v>9.9020408270793181e-06</v>
+        <v>5.9046817619200546e-11</v>
       </c>
       <c r="AT2">
-        <v>2.2204442742696123e-14</v>
+        <v>2.2205079546530576e-14</v>
       </c>
       <c r="AU2">
-        <v>2.2204442742696123e-14</v>
+        <v>2.2205079546530576e-14</v>
       </c>
       <c r="AV2">
-        <v>2.2204442742696123e-14</v>
+        <v>2.2205079546530576e-14</v>
       </c>
       <c r="AW2">
-        <v>2.2204442742696123e-14</v>
+        <v>2.2205079546530576e-14</v>
       </c>
       <c r="AX2">
-        <v>2.2204442742696123e-14</v>
+        <v>2.2205079546530576e-14</v>
       </c>
       <c r="AY2">
-        <v>2.2204442742696123e-14</v>
+        <v>5.1916562243133222e-07</v>
       </c>
       <c r="AZ2">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
+      <c r="A3" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>1.5768228325314194e-05</v>
+        <v>4.1653759659141008e-09</v>
       </c>
       <c r="C3">
-        <v>2.2204150711629813e-14</v>
+        <v>2.2202327709268144e-14</v>
       </c>
       <c r="D3">
-        <v>2.2204150711629813e-14</v>
+        <v>2.2202327709268144e-14</v>
       </c>
       <c r="E3">
-        <v>2.2204150711629813e-14</v>
+        <v>2.2202327709268144e-14</v>
       </c>
       <c r="F3">
-        <v>2.2204150711629813e-14</v>
+        <v>2.2202327709268144e-14</v>
       </c>
       <c r="G3">
-        <v>2.2204150711629813e-14</v>
+        <v>2.2202327709268144e-14</v>
       </c>
       <c r="H3">
-        <v>2.2204150711629813e-14</v>
+        <v>2.2202327709268144e-14</v>
       </c>
       <c r="I3">
-        <v>2.2204150711629813e-14</v>
+        <v>2.2202327709268144e-14</v>
       </c>
       <c r="J3">
-        <v>2.2204150711629813e-14</v>
+        <v>2.2202327709268144e-14</v>
       </c>
       <c r="K3">
-        <v>2.2204150711629813e-14</v>
+        <v>2.2202327709268144e-14</v>
       </c>
       <c r="L3">
-        <v>2.2204150711629813e-14</v>
+        <v>2.2202327709268144e-14</v>
       </c>
       <c r="M3">
-        <v>2.2204150711629813e-14</v>
+        <v>2.2202327709268144e-14</v>
       </c>
       <c r="N3">
-        <v>2.2204150711629813e-14</v>
+        <v>0.95916846809590439</v>
       </c>
       <c r="O3">
-        <v>2.2204150711629813e-14</v>
+        <v>2.2202327709268144e-14</v>
       </c>
       <c r="P3">
-        <v>2.2204150711629813e-14</v>
+        <v>2.2202327709268144e-14</v>
       </c>
       <c r="Q3">
-        <v>1.567187058960126e-09</v>
+        <v>2.2202327709268144e-14</v>
       </c>
       <c r="R3">
-        <v>2.2204150711629813e-14</v>
+        <v>2.2202327709268144e-14</v>
       </c>
       <c r="S3">
-        <v>0.99909389902097689</v>
+        <v>9.3532899613399967e-07</v>
       </c>
       <c r="T3">
-        <v>2.2204150711629813e-14</v>
+        <v>2.2202327709268144e-14</v>
       </c>
       <c r="U3">
-        <v>2.2204150711629813e-14</v>
+        <v>2.2202327709268144e-14</v>
       </c>
       <c r="V3">
-        <v>2.2204150711629813e-14</v>
+        <v>2.2202327709268144e-14</v>
       </c>
       <c r="W3">
-        <v>2.2204150711629813e-14</v>
+        <v>2.2202327709268144e-14</v>
       </c>
       <c r="X3">
-        <v>2.2204150711629813e-14</v>
+        <v>2.2202327709268144e-14</v>
       </c>
       <c r="Y3">
-        <v>2.2204150711629813e-14</v>
+        <v>2.2202327709268144e-14</v>
       </c>
       <c r="Z3">
-        <v>2.2204150711629813e-14</v>
+        <v>2.2202327709268144e-14</v>
       </c>
       <c r="AA3">
-        <v>2.2204150711629813e-14</v>
+        <v>2.2202327709268144e-14</v>
       </c>
       <c r="AB3">
-        <v>3.3916676796711879e-08</v>
+        <v>1.9764867452562641e-07</v>
       </c>
       <c r="AC3">
-        <v>2.2204150711629813e-14</v>
+        <v>2.2202327709268144e-14</v>
       </c>
       <c r="AD3">
-        <v>2.2204150711629813e-14</v>
+        <v>2.2202327709268144e-14</v>
       </c>
       <c r="AE3">
-        <v>2.2204150711629813e-14</v>
+        <v>2.2202327709268144e-14</v>
       </c>
       <c r="AF3">
-        <v>2.2204150711629813e-14</v>
+        <v>2.2202327709268144e-14</v>
       </c>
       <c r="AG3">
-        <v>1.342702267551314e-05</v>
+        <v>8.2513080650564376e-10</v>
       </c>
       <c r="AH3">
-        <v>2.2204150711629813e-14</v>
+        <v>2.2202327709268144e-14</v>
       </c>
       <c r="AI3">
-        <v>0.00050150928095591947</v>
+        <v>5.8527633922160123e-05</v>
       </c>
       <c r="AJ3">
-        <v>2.2204150711629813e-14</v>
+        <v>2.2202327709268144e-14</v>
       </c>
       <c r="AK3">
-        <v>2.2204150711629813e-14</v>
+        <v>2.2202327709268144e-14</v>
       </c>
       <c r="AL3">
-        <v>2.2204150711629813e-14</v>
+        <v>2.2202327709268144e-14</v>
       </c>
       <c r="AM3">
-        <v>2.2204150711629813e-14</v>
+        <v>2.2202327709268144e-14</v>
       </c>
       <c r="AN3">
-        <v>0.00022268444513445646</v>
+        <v>0.040771854841141826</v>
       </c>
       <c r="AO3">
-        <v>2.2204150711629813e-14</v>
+        <v>2.2202327709268144e-14</v>
       </c>
       <c r="AP3">
-        <v>8.4519873217741655e-11</v>
+        <v>4.0891914311293212e-10</v>
       </c>
       <c r="AQ3">
-        <v>2.2204150711629813e-14</v>
+        <v>2.2202327709268144e-14</v>
       </c>
       <c r="AR3">
-        <v>2.2204150711629813e-14</v>
+        <v>2.2202327709268144e-14</v>
       </c>
       <c r="AS3">
-        <v>3.6511961390091402e-10</v>
+        <v>1.3302668645477601e-10</v>
       </c>
       <c r="AT3">
-        <v>2.2204150711629813e-14</v>
+        <v>2.2202327709268144e-14</v>
       </c>
       <c r="AU3">
-        <v>2.2204150711629813e-14</v>
+        <v>2.2202327709268144e-14</v>
       </c>
       <c r="AV3">
-        <v>2.2204150711629813e-14</v>
+        <v>2.2202327709268144e-14</v>
       </c>
       <c r="AW3">
-        <v>2.2204150711629813e-14</v>
+        <v>2.2202327709268144e-14</v>
       </c>
       <c r="AX3">
-        <v>2.2204150711629813e-14</v>
+        <v>2.2202327709268144e-14</v>
       </c>
       <c r="AY3">
-        <v>0.00015267606754039474</v>
+        <v>1.0918020134348712e-08</v>
       </c>
       <c r="AZ3">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
+      <c r="A4" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>2.7837366183441085e-07</v>
+        <v>1.4354105952161563e-06</v>
       </c>
       <c r="C4">
-        <v>2.2204450732353571e-14</v>
+        <v>2.2202353938316812e-14</v>
       </c>
       <c r="D4">
-        <v>2.2204450732353571e-14</v>
+        <v>2.2202353938316812e-14</v>
       </c>
       <c r="E4">
-        <v>2.2204450732353571e-14</v>
+        <v>2.2202353938316812e-14</v>
       </c>
       <c r="F4">
-        <v>2.2204450732353571e-14</v>
+        <v>2.2202353938316812e-14</v>
       </c>
       <c r="G4">
-        <v>2.2204450732353571e-14</v>
+        <v>2.2202353938316812e-14</v>
       </c>
       <c r="H4">
-        <v>2.2204450732353571e-14</v>
+        <v>2.2202353938316812e-14</v>
       </c>
       <c r="I4">
-        <v>2.2204450732353571e-14</v>
+        <v>2.2202353938316812e-14</v>
       </c>
       <c r="J4">
-        <v>2.2204450732353571e-14</v>
+        <v>2.2202353938316812e-14</v>
       </c>
       <c r="K4">
-        <v>2.2204450732353571e-14</v>
+        <v>2.2202353938316812e-14</v>
       </c>
       <c r="L4">
-        <v>2.2204450732353571e-14</v>
+        <v>2.2202353938316812e-14</v>
       </c>
       <c r="M4">
-        <v>2.2204450732353571e-14</v>
+        <v>2.2202353938316812e-14</v>
       </c>
       <c r="N4">
-        <v>0.99997802065790542</v>
+        <v>2.2202353938316812e-14</v>
       </c>
       <c r="O4">
-        <v>2.2204450732353571e-14</v>
+        <v>0.94881700886119158</v>
       </c>
       <c r="P4">
-        <v>2.2204450732353571e-14</v>
+        <v>2.2202353938316812e-14</v>
       </c>
       <c r="Q4">
-        <v>2.2204450732353571e-14</v>
+        <v>2.2202353938316812e-14</v>
       </c>
       <c r="R4">
-        <v>2.2204450732353571e-14</v>
+        <v>2.2202353938316812e-14</v>
       </c>
       <c r="S4">
-        <v>1.0135142722935628e-08</v>
+        <v>2.99451218238181e-08</v>
       </c>
       <c r="T4">
-        <v>2.2204450732353571e-14</v>
+        <v>2.2202353938316812e-14</v>
       </c>
       <c r="U4">
-        <v>2.2204450732353571e-14</v>
+        <v>2.2202353938316812e-14</v>
       </c>
       <c r="V4">
-        <v>2.2204450732353571e-14</v>
+        <v>2.2202353938316812e-14</v>
       </c>
       <c r="W4">
-        <v>2.2204450732353571e-14</v>
+        <v>2.2202353938316812e-14</v>
       </c>
       <c r="X4">
-        <v>2.2204450732353571e-14</v>
+        <v>2.2202353938316812e-14</v>
       </c>
       <c r="Y4">
-        <v>2.2204450732353571e-14</v>
+        <v>2.2202353938316812e-14</v>
       </c>
       <c r="Z4">
-        <v>2.2204450732353571e-14</v>
+        <v>2.2202353938316812e-14</v>
       </c>
       <c r="AA4">
-        <v>2.2204450732353571e-14</v>
+        <v>2.2202353938316812e-14</v>
       </c>
       <c r="AB4">
-        <v>1.321817506498654e-06</v>
+        <v>1.1889431963483992e-09</v>
       </c>
       <c r="AC4">
-        <v>2.2204450732353571e-14</v>
+        <v>2.2202353938316812e-14</v>
       </c>
       <c r="AD4">
-        <v>2.2204450732353571e-14</v>
+        <v>2.2202353938316812e-14</v>
       </c>
       <c r="AE4">
-        <v>2.2204450732353571e-14</v>
+        <v>2.2202353938316812e-14</v>
       </c>
       <c r="AF4">
-        <v>2.2204450732353571e-14</v>
+        <v>2.2202353938316812e-14</v>
       </c>
       <c r="AG4">
-        <v>3.4215325088110483e-09</v>
+        <v>1.2382697232165003e-08</v>
       </c>
       <c r="AH4">
-        <v>2.2204450732353571e-14</v>
+        <v>2.2202353938316812e-14</v>
       </c>
       <c r="AI4">
-        <v>4.2095929749544872e-06</v>
+        <v>0.046378078540862934</v>
       </c>
       <c r="AJ4">
-        <v>2.2204450732353571e-14</v>
+        <v>2.2202353938316812e-14</v>
       </c>
       <c r="AK4">
-        <v>2.2204450732353571e-14</v>
+        <v>2.2202353938316812e-14</v>
       </c>
       <c r="AL4">
-        <v>2.2204450732353571e-14</v>
+        <v>2.2202353938316812e-14</v>
       </c>
       <c r="AM4">
-        <v>2.2204450732353571e-14</v>
+        <v>2.2202353938316812e-14</v>
       </c>
       <c r="AN4">
-        <v>1.5234193065834399e-05</v>
+        <v>0.0048034316897859223</v>
       </c>
       <c r="AO4">
-        <v>2.2204450732353571e-14</v>
+        <v>2.2202353938316812e-14</v>
       </c>
       <c r="AP4">
-        <v>7.7984189152691045e-07</v>
+        <v>2.2202353938316812e-14</v>
       </c>
       <c r="AQ4">
-        <v>2.2204450732353571e-14</v>
+        <v>2.2202353938316812e-14</v>
       </c>
       <c r="AR4">
-        <v>2.2204450732353571e-14</v>
+        <v>2.2202353938316812e-14</v>
       </c>
       <c r="AS4">
-        <v>1.116794675750545e-07</v>
+        <v>1.7127688772053958e-10</v>
       </c>
       <c r="AT4">
-        <v>2.2204450732353571e-14</v>
+        <v>2.2202353938316812e-14</v>
       </c>
       <c r="AU4">
-        <v>2.2204450732353571e-14</v>
+        <v>2.2202353938316812e-14</v>
       </c>
       <c r="AV4">
-        <v>2.2204450732353571e-14</v>
+        <v>2.2202353938316812e-14</v>
       </c>
       <c r="AW4">
-        <v>2.2204450732353571e-14</v>
+        <v>2.2202353938316812e-14</v>
       </c>
       <c r="AX4">
-        <v>2.2204450732353571e-14</v>
+        <v>2.2202353938316812e-14</v>
       </c>
       <c r="AY4">
-        <v>3.0285962942973707e-08</v>
+        <v>1.8086148711845702e-09</v>
       </c>
       <c r="AZ4">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
+      <c r="A5" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>2.2484157706039837e-05</v>
+        <v>6.1314140541243143e-05</v>
       </c>
       <c r="C5">
-        <v>2.2204050176524862e-14</v>
+        <v>2.2203431540841869e-14</v>
       </c>
       <c r="D5">
-        <v>2.2204050176524862e-14</v>
+        <v>2.2203431540841869e-14</v>
       </c>
       <c r="E5">
-        <v>2.2204050176524862e-14</v>
+        <v>2.2203431540841869e-14</v>
       </c>
       <c r="F5">
-        <v>2.2204050176524862e-14</v>
+        <v>2.2203431540841869e-14</v>
       </c>
       <c r="G5">
-        <v>2.2204050176524862e-14</v>
+        <v>2.2203431540841869e-14</v>
       </c>
       <c r="H5">
-        <v>2.2204050176524862e-14</v>
+        <v>2.2203431540841869e-14</v>
       </c>
       <c r="I5">
-        <v>2.2204050176524862e-14</v>
+        <v>2.2203431540841869e-14</v>
       </c>
       <c r="J5">
-        <v>2.2204050176524862e-14</v>
+        <v>2.2203431540841869e-14</v>
       </c>
       <c r="K5">
-        <v>2.2204050176524862e-14</v>
+        <v>2.2203431540841869e-14</v>
       </c>
       <c r="L5">
-        <v>2.2204050176524862e-14</v>
+        <v>2.2203431540841869e-14</v>
       </c>
       <c r="M5">
-        <v>2.2204050176524862e-14</v>
+        <v>2.2203431540841869e-14</v>
       </c>
       <c r="N5">
-        <v>2.2204050176524862e-14</v>
+        <v>2.2203431540841869e-14</v>
       </c>
       <c r="O5">
-        <v>0.99907349207308516</v>
+        <v>2.2203431540841869e-14</v>
       </c>
       <c r="P5">
-        <v>2.2204050176524862e-14</v>
+        <v>0.9976667884120668</v>
       </c>
       <c r="Q5">
-        <v>2.0037081032119879e-13</v>
+        <v>2.2203431540841869e-14</v>
       </c>
       <c r="R5">
-        <v>2.2204050176524862e-14</v>
+        <v>2.2203431540841869e-14</v>
       </c>
       <c r="S5">
-        <v>5.1313659947031825e-05</v>
+        <v>2.2203431540841869e-14</v>
       </c>
       <c r="T5">
-        <v>2.2204050176524862e-14</v>
+        <v>2.2203431540841869e-14</v>
       </c>
       <c r="U5">
-        <v>2.2204050176524862e-14</v>
+        <v>2.2203431540841869e-14</v>
       </c>
       <c r="V5">
-        <v>2.2204050176524862e-14</v>
+        <v>2.2203431540841869e-14</v>
       </c>
       <c r="W5">
-        <v>2.2204050176524862e-14</v>
+        <v>2.2203431540841869e-14</v>
       </c>
       <c r="X5">
-        <v>2.2204050176524862e-14</v>
+        <v>2.2203431540841869e-14</v>
       </c>
       <c r="Y5">
-        <v>2.2204050176524862e-14</v>
+        <v>2.2203431540841869e-14</v>
       </c>
       <c r="Z5">
-        <v>2.2204050176524862e-14</v>
+        <v>2.2203431540841869e-14</v>
       </c>
       <c r="AA5">
-        <v>2.2204050176524862e-14</v>
+        <v>2.2203431540841869e-14</v>
       </c>
       <c r="AB5">
-        <v>5.9806895444766224e-09</v>
+        <v>2.9041417033345183e-11</v>
       </c>
       <c r="AC5">
-        <v>2.2204050176524862e-14</v>
+        <v>2.2203431540841869e-14</v>
       </c>
       <c r="AD5">
-        <v>2.2204050176524862e-14</v>
+        <v>2.2203431540841869e-14</v>
       </c>
       <c r="AE5">
-        <v>2.2204050176524862e-14</v>
+        <v>2.2203431540841869e-14</v>
       </c>
       <c r="AF5">
-        <v>2.2204050176524862e-14</v>
+        <v>2.2203431540841869e-14</v>
       </c>
       <c r="AG5">
-        <v>2.1740966781126751e-07</v>
+        <v>2.2203431540841869e-14</v>
       </c>
       <c r="AH5">
-        <v>2.2204050176524862e-14</v>
+        <v>2.2203431540841869e-14</v>
       </c>
       <c r="AI5">
-        <v>1.9585691325877254e-05</v>
+        <v>2.2203431540841869e-14</v>
       </c>
       <c r="AJ5">
-        <v>2.2204050176524862e-14</v>
+        <v>2.2203431540841869e-14</v>
       </c>
       <c r="AK5">
-        <v>2.2204050176524862e-14</v>
+        <v>2.2203431540841869e-14</v>
       </c>
       <c r="AL5">
-        <v>2.2204050176524862e-14</v>
+        <v>2.2203431540841869e-14</v>
       </c>
       <c r="AM5">
-        <v>2.2204050176524862e-14</v>
+        <v>2.2203431540841869e-14</v>
       </c>
       <c r="AN5">
-        <v>0.00082877796232053527</v>
+        <v>2.2203431540841869e-14</v>
       </c>
       <c r="AO5">
-        <v>2.2204050176524862e-14</v>
+        <v>2.2203431540841869e-14</v>
       </c>
       <c r="AP5">
-        <v>2.2204050176524862e-14</v>
+        <v>2.2203431540841869e-14</v>
       </c>
       <c r="AQ5">
-        <v>2.2204050176524862e-14</v>
+        <v>2.2203431540841869e-14</v>
       </c>
       <c r="AR5">
-        <v>2.2204050176524862e-14</v>
+        <v>2.2203431540841869e-14</v>
       </c>
       <c r="AS5">
-        <v>1.3544040828324023e-09</v>
+        <v>0.0022718940018791327</v>
       </c>
       <c r="AT5">
-        <v>2.2204050176524862e-14</v>
+        <v>2.2203431540841869e-14</v>
       </c>
       <c r="AU5">
-        <v>2.2204050176524862e-14</v>
+        <v>2.2203431540841869e-14</v>
       </c>
       <c r="AV5">
-        <v>2.2204050176524862e-14</v>
+        <v>2.2203431540841869e-14</v>
       </c>
       <c r="AW5">
-        <v>2.2204050176524862e-14</v>
+        <v>2.2203431540841869e-14</v>
       </c>
       <c r="AX5">
-        <v>2.2204050176524862e-14</v>
+        <v>2.2203431540841869e-14</v>
       </c>
       <c r="AY5">
-        <v>4.1217097655129467e-06</v>
+        <v>3.4154721649132259e-09</v>
       </c>
       <c r="AZ5">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
+      <c r="A6" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>5.170838217584849e-05</v>
+        <v>4.4205078577065699e-05</v>
       </c>
       <c r="C6">
-        <v>2.2204428156061777e-14</v>
+        <v>2.2202888362743841e-14</v>
       </c>
       <c r="D6">
-        <v>2.2204428156061777e-14</v>
+        <v>2.2202888362743841e-14</v>
       </c>
       <c r="E6">
-        <v>2.2204428156061777e-14</v>
+        <v>2.2202888362743841e-14</v>
       </c>
       <c r="F6">
-        <v>2.2204428156061777e-14</v>
+        <v>2.2202888362743841e-14</v>
       </c>
       <c r="G6">
-        <v>2.2204428156061777e-14</v>
+        <v>2.2202888362743841e-14</v>
       </c>
       <c r="H6">
-        <v>2.2204428156061777e-14</v>
+        <v>2.2202888362743841e-14</v>
       </c>
       <c r="I6">
-        <v>2.2204428156061777e-14</v>
+        <v>2.2202888362743841e-14</v>
       </c>
       <c r="J6">
-        <v>2.2204428156061777e-14</v>
+        <v>2.2202888362743841e-14</v>
       </c>
       <c r="K6">
-        <v>2.2204428156061777e-14</v>
+        <v>2.2202888362743841e-14</v>
       </c>
       <c r="L6">
-        <v>2.2204428156061777e-14</v>
+        <v>2.2202888362743841e-14</v>
       </c>
       <c r="M6">
-        <v>2.2204428156061777e-14</v>
+        <v>2.2202888362743841e-14</v>
       </c>
       <c r="N6">
-        <v>2.2204428156061777e-14</v>
+        <v>2.2202888362743841e-14</v>
       </c>
       <c r="O6">
-        <v>2.2204428156061777e-14</v>
+        <v>0.0091574623263116044</v>
       </c>
       <c r="P6">
-        <v>0.99992716899692857</v>
+        <v>2.2202888362743841e-14</v>
       </c>
       <c r="Q6">
-        <v>2.2204428156061777e-14</v>
+        <v>0.92174717194531908</v>
       </c>
       <c r="R6">
-        <v>2.2204428156061777e-14</v>
+        <v>2.2202888362743841e-14</v>
       </c>
       <c r="S6">
-        <v>2.2204428156061777e-14</v>
+        <v>3.2539233400143908e-07</v>
       </c>
       <c r="T6">
-        <v>2.2204428156061777e-14</v>
+        <v>2.2202888362743841e-14</v>
       </c>
       <c r="U6">
-        <v>2.2204428156061777e-14</v>
+        <v>2.2202888362743841e-14</v>
       </c>
       <c r="V6">
-        <v>2.2204428156061777e-14</v>
+        <v>2.2202888362743841e-14</v>
       </c>
       <c r="W6">
-        <v>2.2204428156061777e-14</v>
+        <v>2.2202888362743841e-14</v>
       </c>
       <c r="X6">
-        <v>2.2204428156061777e-14</v>
+        <v>2.2202888362743841e-14</v>
       </c>
       <c r="Y6">
-        <v>2.2204428156061777e-14</v>
+        <v>2.2202888362743841e-14</v>
       </c>
       <c r="Z6">
-        <v>2.2204428156061777e-14</v>
+        <v>2.2202888362743841e-14</v>
       </c>
       <c r="AA6">
-        <v>2.2204428156061777e-14</v>
+        <v>2.2202888362743841e-14</v>
       </c>
       <c r="AB6">
-        <v>2.290657349363006e-10</v>
+        <v>3.2281096244156103e-10</v>
       </c>
       <c r="AC6">
-        <v>2.2204428156061777e-14</v>
+        <v>2.2202888362743841e-14</v>
       </c>
       <c r="AD6">
-        <v>2.2204428156061777e-14</v>
+        <v>2.2202888362743841e-14</v>
       </c>
       <c r="AE6">
-        <v>2.2204428156061777e-14</v>
+        <v>2.2202888362743841e-14</v>
       </c>
       <c r="AF6">
-        <v>2.2204428156061777e-14</v>
+        <v>2.2202888362743841e-14</v>
       </c>
       <c r="AG6">
-        <v>2.2204428156061777e-14</v>
+        <v>9.0221953220592931e-07</v>
       </c>
       <c r="AH6">
-        <v>2.2204428156061777e-14</v>
+        <v>2.2202888362743841e-14</v>
       </c>
       <c r="AI6">
-        <v>2.2204428156061777e-14</v>
+        <v>2.6805801402518184e-07</v>
       </c>
       <c r="AJ6">
-        <v>2.2204428156061777e-14</v>
+        <v>2.2202888362743841e-14</v>
       </c>
       <c r="AK6">
-        <v>2.2204428156061777e-14</v>
+        <v>2.2202888362743841e-14</v>
       </c>
       <c r="AL6">
-        <v>2.2204428156061777e-14</v>
+        <v>2.2202888362743841e-14</v>
       </c>
       <c r="AM6">
-        <v>2.2204428156061777e-14</v>
+        <v>2.2202888362743841e-14</v>
       </c>
       <c r="AN6">
-        <v>2.2204428156061777e-14</v>
+        <v>0.069007294043823747</v>
       </c>
       <c r="AO6">
-        <v>2.2204428156061777e-14</v>
+        <v>2.2202888362743841e-14</v>
       </c>
       <c r="AP6">
-        <v>2.2204428156061777e-14</v>
+        <v>1.0412801114692185e-07</v>
       </c>
       <c r="AQ6">
-        <v>2.2204428156061777e-14</v>
+        <v>2.2202888362743841e-14</v>
       </c>
       <c r="AR6">
-        <v>2.2204428156061777e-14</v>
+        <v>2.2202888362743841e-14</v>
       </c>
       <c r="AS6">
-        <v>2.1122086303121308e-05</v>
+        <v>5.4086123174990797e-11</v>
       </c>
       <c r="AT6">
-        <v>2.2204428156061777e-14</v>
+        <v>2.2202888362743841e-14</v>
       </c>
       <c r="AU6">
-        <v>2.2204428156061777e-14</v>
+        <v>2.2202888362743841e-14</v>
       </c>
       <c r="AV6">
-        <v>2.2204428156061777e-14</v>
+        <v>2.2202888362743841e-14</v>
       </c>
       <c r="AW6">
-        <v>2.2204428156061777e-14</v>
+        <v>2.2202888362743841e-14</v>
       </c>
       <c r="AX6">
-        <v>2.2204428156061777e-14</v>
+        <v>2.2202888362743841e-14</v>
       </c>
       <c r="AY6">
-        <v>3.0452745023459622e-10</v>
+        <v>4.2266430314366549e-05</v>
       </c>
       <c r="AZ6">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
+      <c r="A7" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>0.00076969040334207205</v>
+        <v>6.7101476757704541e-06</v>
       </c>
       <c r="C7">
-        <v>2.2202353601754024e-14</v>
+        <v>2.2202374709790585e-14</v>
       </c>
       <c r="D7">
-        <v>2.2202353601754024e-14</v>
+        <v>2.2202374709790585e-14</v>
       </c>
       <c r="E7">
-        <v>2.2202353601754024e-14</v>
+        <v>2.2202374709790585e-14</v>
       </c>
       <c r="F7">
-        <v>2.2202353601754024e-14</v>
+        <v>2.2202374709790585e-14</v>
       </c>
       <c r="G7">
-        <v>2.2202353601754024e-14</v>
+        <v>2.2202374709790585e-14</v>
       </c>
       <c r="H7">
-        <v>2.2202353601754024e-14</v>
+        <v>2.2202374709790585e-14</v>
       </c>
       <c r="I7">
-        <v>2.2202353601754024e-14</v>
+        <v>2.2202374709790585e-14</v>
       </c>
       <c r="J7">
-        <v>2.2202353601754024e-14</v>
+        <v>2.2202374709790585e-14</v>
       </c>
       <c r="K7">
-        <v>2.2202353601754024e-14</v>
+        <v>2.2202374709790585e-14</v>
       </c>
       <c r="L7">
-        <v>2.2202353601754024e-14</v>
+        <v>2.2202374709790585e-14</v>
       </c>
       <c r="M7">
-        <v>2.2202353601754024e-14</v>
+        <v>2.2202374709790585e-14</v>
       </c>
       <c r="N7">
-        <v>2.2202353601754024e-14</v>
+        <v>2.2202374709790585e-14</v>
       </c>
       <c r="O7">
-        <v>2.2202353601754024e-14</v>
+        <v>2.2202374709790585e-14</v>
       </c>
       <c r="P7">
-        <v>2.2202353601754024e-14</v>
+        <v>2.2202374709790585e-14</v>
       </c>
       <c r="Q7">
-        <v>0.97514511696708916</v>
+        <v>2.2202374709790585e-14</v>
       </c>
       <c r="R7">
-        <v>2.2202353601754024e-14</v>
+        <v>2.2202374709790585e-14</v>
       </c>
       <c r="S7">
-        <v>1.1350315335981551e-05</v>
+        <v>1.4502487244961833e-07</v>
       </c>
       <c r="T7">
-        <v>2.2202353601754024e-14</v>
+        <v>0.97135558513326292</v>
       </c>
       <c r="U7">
-        <v>2.2202353601754024e-14</v>
+        <v>2.2202374709790585e-14</v>
       </c>
       <c r="V7">
-        <v>2.2202353601754024e-14</v>
+        <v>2.2202374709790585e-14</v>
       </c>
       <c r="W7">
-        <v>2.2202353601754024e-14</v>
+        <v>2.2202374709790585e-14</v>
       </c>
       <c r="X7">
-        <v>2.2202353601754024e-14</v>
+        <v>2.2202374709790585e-14</v>
       </c>
       <c r="Y7">
-        <v>2.2202353601754024e-14</v>
+        <v>2.2202374709790585e-14</v>
       </c>
       <c r="Z7">
-        <v>2.2202353601754024e-14</v>
+        <v>2.2202374709790585e-14</v>
       </c>
       <c r="AA7">
-        <v>2.2202353601754024e-14</v>
+        <v>2.2202374709790585e-14</v>
       </c>
       <c r="AB7">
-        <v>2.2755893034531337e-10</v>
+        <v>7.8896676705946439e-09</v>
       </c>
       <c r="AC7">
-        <v>2.2202353601754024e-14</v>
+        <v>2.2202374709790585e-14</v>
       </c>
       <c r="AD7">
-        <v>2.2202353601754024e-14</v>
+        <v>2.2202374709790585e-14</v>
       </c>
       <c r="AE7">
-        <v>2.2202353601754024e-14</v>
+        <v>2.2202374709790585e-14</v>
       </c>
       <c r="AF7">
-        <v>2.2202353601754024e-14</v>
+        <v>2.2202374709790585e-14</v>
       </c>
       <c r="AG7">
-        <v>3.940236499622953e-09</v>
+        <v>1.8732774534284333e-08</v>
       </c>
       <c r="AH7">
-        <v>2.2202353601754024e-14</v>
+        <v>2.2202374709790585e-14</v>
       </c>
       <c r="AI7">
-        <v>2.2202353601754024e-14</v>
+        <v>0.028625346319382676</v>
       </c>
       <c r="AJ7">
-        <v>2.2202353601754024e-14</v>
+        <v>2.2202374709790585e-14</v>
       </c>
       <c r="AK7">
-        <v>2.2202353601754024e-14</v>
+        <v>2.2202374709790585e-14</v>
       </c>
       <c r="AL7">
-        <v>2.2202353601754024e-14</v>
+        <v>2.2202374709790585e-14</v>
       </c>
       <c r="AM7">
-        <v>2.2202353601754024e-14</v>
+        <v>2.2202374709790585e-14</v>
       </c>
       <c r="AN7">
-        <v>4.7951731043688294e-05</v>
+        <v>1.1343272998153011e-05</v>
       </c>
       <c r="AO7">
-        <v>2.2202353601754024e-14</v>
+        <v>2.2202374709790585e-14</v>
       </c>
       <c r="AP7">
-        <v>4.2903144589579746e-10</v>
+        <v>2.2202374709790585e-14</v>
       </c>
       <c r="AQ7">
-        <v>2.2202353601754024e-14</v>
+        <v>2.2202374709790585e-14</v>
       </c>
       <c r="AR7">
-        <v>2.2202353601754024e-14</v>
+        <v>2.2202374709790585e-14</v>
       </c>
       <c r="AS7">
-        <v>6.7528615150619112e-10</v>
+        <v>5.9687220382132039e-10</v>
       </c>
       <c r="AT7">
-        <v>2.2202353601754024e-14</v>
+        <v>2.2202374709790585e-14</v>
       </c>
       <c r="AU7">
-        <v>2.2202353601754024e-14</v>
+        <v>2.2202374709790585e-14</v>
       </c>
       <c r="AV7">
-        <v>2.2202353601754024e-14</v>
+        <v>2.2202374709790585e-14</v>
       </c>
       <c r="AW7">
-        <v>2.2202353601754024e-14</v>
+        <v>2.2202374709790585e-14</v>
       </c>
       <c r="AX7">
-        <v>2.2202353601754024e-14</v>
+        <v>2.2202374709790585e-14</v>
       </c>
       <c r="AY7">
-        <v>0.024025885310165883</v>
+        <v>8.4288158325495566e-07</v>
       </c>
       <c r="AZ7">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
+      <c r="A8" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>0.00041230882671986104</v>
+        <v>0.00067697935834592235</v>
       </c>
       <c r="C8">
-        <v>2.2204152751455456e-14</v>
+        <v>2.2204020946461018e-14</v>
       </c>
       <c r="D8">
-        <v>2.2204152751455456e-14</v>
+        <v>2.2204020946461018e-14</v>
       </c>
       <c r="E8">
-        <v>2.2204152751455456e-14</v>
+        <v>2.2204020946461018e-14</v>
       </c>
       <c r="F8">
-        <v>2.2204152751455456e-14</v>
+        <v>2.2204020946461018e-14</v>
       </c>
       <c r="G8">
-        <v>2.2204152751455456e-14</v>
+        <v>2.2204020946461018e-14</v>
       </c>
       <c r="H8">
-        <v>2.2204152751455456e-14</v>
+        <v>2.2204020946461018e-14</v>
       </c>
       <c r="I8">
-        <v>2.2204152751455456e-14</v>
+        <v>2.2204020946461018e-14</v>
       </c>
       <c r="J8">
-        <v>2.2204152751455456e-14</v>
+        <v>2.2204020946461018e-14</v>
       </c>
       <c r="K8">
-        <v>2.2204152751455456e-14</v>
+        <v>2.2204020946461018e-14</v>
       </c>
       <c r="L8">
-        <v>2.2204152751455456e-14</v>
+        <v>2.2204020946461018e-14</v>
       </c>
       <c r="M8">
-        <v>2.2204152751455456e-14</v>
+        <v>2.2204020946461018e-14</v>
       </c>
       <c r="N8">
-        <v>2.2204152751455456e-14</v>
+        <v>2.2204020946461018e-14</v>
       </c>
       <c r="O8">
-        <v>2.2204152751455456e-14</v>
+        <v>2.2204020946461018e-14</v>
       </c>
       <c r="P8">
-        <v>2.2204152751455456e-14</v>
+        <v>2.2204020946461018e-14</v>
       </c>
       <c r="Q8">
-        <v>2.2204152751455456e-14</v>
+        <v>2.2204020946461018e-14</v>
       </c>
       <c r="R8">
-        <v>2.2204152751455456e-14</v>
+        <v>0.99900729268958388</v>
       </c>
       <c r="S8">
-        <v>9.0627395320318159e-05</v>
+        <v>2.2204020946461018e-14</v>
       </c>
       <c r="T8">
-        <v>0.99930559126387764</v>
+        <v>2.2204020946461018e-14</v>
       </c>
       <c r="U8">
-        <v>2.2204152751455456e-14</v>
+        <v>2.2204020946461018e-14</v>
       </c>
       <c r="V8">
-        <v>2.2204152751455456e-14</v>
+        <v>2.2204020946461018e-14</v>
       </c>
       <c r="W8">
-        <v>2.2204152751455456e-14</v>
+        <v>2.2204020946461018e-14</v>
       </c>
       <c r="X8">
-        <v>2.2204152751455456e-14</v>
+        <v>2.2204020946461018e-14</v>
       </c>
       <c r="Y8">
-        <v>2.2204152751455456e-14</v>
+        <v>2.2204020946461018e-14</v>
       </c>
       <c r="Z8">
-        <v>2.2204152751455456e-14</v>
+        <v>2.2204020946461018e-14</v>
       </c>
       <c r="AA8">
-        <v>2.2204152751455456e-14</v>
+        <v>2.2204020946461018e-14</v>
       </c>
       <c r="AB8">
-        <v>1.3238034598425841e-08</v>
+        <v>7.1275518671345548e-13</v>
       </c>
       <c r="AC8">
-        <v>2.2204152751455456e-14</v>
+        <v>2.2204020946461018e-14</v>
       </c>
       <c r="AD8">
-        <v>2.2204152751455456e-14</v>
+        <v>2.2204020946461018e-14</v>
       </c>
       <c r="AE8">
-        <v>2.2204152751455456e-14</v>
+        <v>2.2204020946461018e-14</v>
       </c>
       <c r="AF8">
-        <v>2.2204152751455456e-14</v>
+        <v>2.2204020946461018e-14</v>
       </c>
       <c r="AG8">
-        <v>5.2838587253293472e-06</v>
+        <v>2.2204020946461018e-14</v>
       </c>
       <c r="AH8">
-        <v>2.2204152751455456e-14</v>
+        <v>2.2204020946461018e-14</v>
       </c>
       <c r="AI8">
-        <v>1.5003088026536888e-05</v>
+        <v>2.2204020946461018e-14</v>
       </c>
       <c r="AJ8">
-        <v>2.2204152751455456e-14</v>
+        <v>2.2204020946461018e-14</v>
       </c>
       <c r="AK8">
-        <v>2.2204152751455456e-14</v>
+        <v>2.2204020946461018e-14</v>
       </c>
       <c r="AL8">
-        <v>2.2204152751455456e-14</v>
+        <v>2.2204020946461018e-14</v>
       </c>
       <c r="AM8">
-        <v>2.2204152751455456e-14</v>
+        <v>2.2204020946461018e-14</v>
       </c>
       <c r="AN8">
-        <v>1.3210322137900174e-05</v>
+        <v>2.2204020946461018e-14</v>
       </c>
       <c r="AO8">
-        <v>2.2204152751455456e-14</v>
+        <v>2.2204020946461018e-14</v>
       </c>
       <c r="AP8">
-        <v>2.2204152751455456e-14</v>
+        <v>2.2204020946461018e-14</v>
       </c>
       <c r="AQ8">
-        <v>2.2204152751455456e-14</v>
+        <v>2.2204020946461018e-14</v>
       </c>
       <c r="AR8">
-        <v>2.2204152751455456e-14</v>
+        <v>2.2204020946461018e-14</v>
       </c>
       <c r="AS8">
-        <v>3.8424399551740869e-09</v>
+        <v>0.00031572777643193342</v>
       </c>
       <c r="AT8">
-        <v>2.2204152751455456e-14</v>
+        <v>2.2204020946461018e-14</v>
       </c>
       <c r="AU8">
-        <v>2.2204152751455456e-14</v>
+        <v>2.2204020946461018e-14</v>
       </c>
       <c r="AV8">
-        <v>2.2204152751455456e-14</v>
+        <v>2.2204020946461018e-14</v>
       </c>
       <c r="AW8">
-        <v>2.2204152751455456e-14</v>
+        <v>2.2204020946461018e-14</v>
       </c>
       <c r="AX8">
-        <v>2.2204152751455456e-14</v>
+        <v>2.2204020946461018e-14</v>
       </c>
       <c r="AY8">
-        <v>0.00015795816380732969</v>
+        <v>1.7392636785704552e-10</v>
       </c>
       <c r="AZ8">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
+      <c r="A9" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="B9">
-        <v>6.4860748955360089e-06</v>
+        <v>3.8176559521792783e-07</v>
       </c>
       <c r="C9">
-        <v>2.2204457451641446e-14</v>
+        <v>2.2205043362881097e-14</v>
       </c>
       <c r="D9">
-        <v>2.2204457451641446e-14</v>
+        <v>2.2205043362881097e-14</v>
       </c>
       <c r="E9">
-        <v>2.2204457451641446e-14</v>
+        <v>2.2205043362881097e-14</v>
       </c>
       <c r="F9">
-        <v>2.2204457451641446e-14</v>
+        <v>2.2205043362881097e-14</v>
       </c>
       <c r="G9">
-        <v>2.2204457451641446e-14</v>
+        <v>2.2205043362881097e-14</v>
       </c>
       <c r="H9">
-        <v>2.2204457451641446e-14</v>
+        <v>2.2205043362881097e-14</v>
       </c>
       <c r="I9">
-        <v>2.2204457451641446e-14</v>
+        <v>2.2205043362881097e-14</v>
       </c>
       <c r="J9">
-        <v>2.2204457451641446e-14</v>
+        <v>2.2205043362881097e-14</v>
       </c>
       <c r="K9">
-        <v>2.2204457451641446e-14</v>
+        <v>2.2205043362881097e-14</v>
       </c>
       <c r="L9">
-        <v>2.2204457451641446e-14</v>
+        <v>2.2205043362881097e-14</v>
       </c>
       <c r="M9">
-        <v>2.2204457451641446e-14</v>
+        <v>2.2205043362881097e-14</v>
       </c>
       <c r="N9">
-        <v>2.2204457451641446e-14</v>
+        <v>2.2205043362881097e-14</v>
       </c>
       <c r="O9">
-        <v>2.2204457451641446e-14</v>
+        <v>0.011749932944139261</v>
       </c>
       <c r="P9">
-        <v>2.2204457451641446e-14</v>
+        <v>2.2205043362881097e-14</v>
       </c>
       <c r="Q9">
-        <v>2.2204457451641446e-14</v>
+        <v>2.2205043362881097e-14</v>
       </c>
       <c r="R9">
-        <v>0.99999315244933606</v>
+        <v>2.2205043362881097e-14</v>
       </c>
       <c r="S9">
-        <v>3.1464914263591367e-09</v>
+        <v>0.96537125956085945</v>
       </c>
       <c r="T9">
-        <v>2.2204457451641446e-14</v>
+        <v>2.2205043362881097e-14</v>
       </c>
       <c r="U9">
-        <v>2.2204457451641446e-14</v>
+        <v>2.2205043362881097e-14</v>
       </c>
       <c r="V9">
-        <v>2.2204457451641446e-14</v>
+        <v>2.2205043362881097e-14</v>
       </c>
       <c r="W9">
-        <v>2.2204457451641446e-14</v>
+        <v>2.2205043362881097e-14</v>
       </c>
       <c r="X9">
-        <v>2.2204457451641446e-14</v>
+        <v>2.2205043362881097e-14</v>
       </c>
       <c r="Y9">
-        <v>2.2204457451641446e-14</v>
+        <v>2.2205043362881097e-14</v>
       </c>
       <c r="Z9">
-        <v>2.2204457451641446e-14</v>
+        <v>2.2205043362881097e-14</v>
       </c>
       <c r="AA9">
-        <v>2.2204457451641446e-14</v>
+        <v>2.2205043362881097e-14</v>
       </c>
       <c r="AB9">
-        <v>1.5134039124309993e-09</v>
+        <v>8.1264088423765396e-09</v>
       </c>
       <c r="AC9">
-        <v>2.2204457451641446e-14</v>
+        <v>2.2205043362881097e-14</v>
       </c>
       <c r="AD9">
-        <v>2.2204457451641446e-14</v>
+        <v>2.2205043362881097e-14</v>
       </c>
       <c r="AE9">
-        <v>2.2204457451641446e-14</v>
+        <v>2.2205043362881097e-14</v>
       </c>
       <c r="AF9">
-        <v>2.2204457451641446e-14</v>
+        <v>2.2205043362881097e-14</v>
       </c>
       <c r="AG9">
-        <v>2.2204457451641446e-14</v>
+        <v>9.0373146715497911e-07</v>
       </c>
       <c r="AH9">
-        <v>2.2204457451641446e-14</v>
+        <v>2.2205043362881097e-14</v>
       </c>
       <c r="AI9">
-        <v>2.2204457451641446e-14</v>
+        <v>0.010031365517880128</v>
       </c>
       <c r="AJ9">
-        <v>2.2204457451641446e-14</v>
+        <v>2.2205043362881097e-14</v>
       </c>
       <c r="AK9">
-        <v>2.2204457451641446e-14</v>
+        <v>2.2205043362881097e-14</v>
       </c>
       <c r="AL9">
-        <v>2.2204457451641446e-14</v>
+        <v>2.2205043362881097e-14</v>
       </c>
       <c r="AM9">
-        <v>2.2204457451641446e-14</v>
+        <v>2.2205043362881097e-14</v>
       </c>
       <c r="AN9">
-        <v>1.3297217065467927e-12</v>
+        <v>0.012845827786568663</v>
       </c>
       <c r="AO9">
-        <v>2.2204457451641446e-14</v>
+        <v>2.2205043362881097e-14</v>
       </c>
       <c r="AP9">
-        <v>4.7120675890842626e-11</v>
+        <v>2.2205043362881097e-14</v>
       </c>
       <c r="AQ9">
-        <v>2.2204457451641446e-14</v>
+        <v>2.2205043362881097e-14</v>
       </c>
       <c r="AR9">
-        <v>2.2204457451641446e-14</v>
+        <v>2.2205043362881097e-14</v>
       </c>
       <c r="AS9">
-        <v>3.5550780787876007e-07</v>
+        <v>6.5986839168736367e-11</v>
       </c>
       <c r="AT9">
-        <v>2.2204457451641446e-14</v>
+        <v>2.2205043362881097e-14</v>
       </c>
       <c r="AU9">
-        <v>2.2204457451641446e-14</v>
+        <v>2.2205043362881097e-14</v>
       </c>
       <c r="AV9">
-        <v>2.2204457451641446e-14</v>
+        <v>2.2205043362881097e-14</v>
       </c>
       <c r="AW9">
-        <v>2.2204457451641446e-14</v>
+        <v>2.2205043362881097e-14</v>
       </c>
       <c r="AX9">
-        <v>2.2204457451641446e-14</v>
+        <v>2.2205043362881097e-14</v>
       </c>
       <c r="AY9">
-        <v>1.2586822506895553e-09</v>
+        <v>3.2050018404502072e-07</v>
       </c>
       <c r="AZ9">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
+      <c r="A10" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>1.0099888638995676e-06</v>
+        <v>2.1982621387526648e-09</v>
       </c>
       <c r="C10">
-        <v>2.2241073106340587e-14</v>
+        <v>2.2202294422853556e-14</v>
       </c>
       <c r="D10">
-        <v>2.2241073106340587e-14</v>
+        <v>2.2202294422853556e-14</v>
       </c>
       <c r="E10">
-        <v>2.2241073106340587e-14</v>
+        <v>2.2202294422853556e-14</v>
       </c>
       <c r="F10">
-        <v>2.2241073106340587e-14</v>
+        <v>2.2202294422853556e-14</v>
       </c>
       <c r="G10">
-        <v>2.2241073106340587e-14</v>
+        <v>2.2202294422853556e-14</v>
       </c>
       <c r="H10">
-        <v>2.2241073106340587e-14</v>
+        <v>2.2202294422853556e-14</v>
       </c>
       <c r="I10">
-        <v>2.2241073106340587e-14</v>
+        <v>2.2202294422853556e-14</v>
       </c>
       <c r="J10">
-        <v>2.2241073106340587e-14</v>
+        <v>2.2202294422853556e-14</v>
       </c>
       <c r="K10">
-        <v>2.2241073106340587e-14</v>
+        <v>2.2202294422853556e-14</v>
       </c>
       <c r="L10">
-        <v>2.2241073106340587e-14</v>
+        <v>2.2202294422853556e-14</v>
       </c>
       <c r="M10">
-        <v>2.2241073106340587e-14</v>
+        <v>2.2202294422853556e-14</v>
       </c>
       <c r="N10">
-        <v>2.2241073106340587e-14</v>
+        <v>2.2202294422853556e-14</v>
       </c>
       <c r="O10">
-        <v>2.2241073106340587e-14</v>
+        <v>2.2202294422853556e-14</v>
       </c>
       <c r="P10">
-        <v>2.2241073106340587e-14</v>
+        <v>2.2202294422853556e-14</v>
       </c>
       <c r="Q10">
-        <v>2.4033875134725914e-10</v>
+        <v>2.2202294422853556e-14</v>
       </c>
       <c r="R10">
-        <v>2.2241073106340587e-14</v>
+        <v>2.2202294422853556e-14</v>
       </c>
       <c r="S10">
-        <v>0.99980666560589282</v>
+        <v>1.3702785420516427e-06</v>
       </c>
       <c r="T10">
-        <v>2.2241073106340594e-14</v>
+        <v>2.2202294422853556e-14</v>
       </c>
       <c r="U10">
-        <v>2.2241073106340594e-14</v>
+        <v>0.99366962017474658</v>
       </c>
       <c r="V10">
-        <v>2.2241073106340594e-14</v>
+        <v>2.2202294422853556e-14</v>
       </c>
       <c r="W10">
-        <v>2.2241073106340594e-14</v>
+        <v>2.2202294422853556e-14</v>
       </c>
       <c r="X10">
-        <v>2.2241073106340594e-14</v>
+        <v>2.2202294422853556e-14</v>
       </c>
       <c r="Y10">
-        <v>2.2241073106340594e-14</v>
+        <v>2.2202294422853556e-14</v>
       </c>
       <c r="Z10">
-        <v>2.2241073106340594e-14</v>
+        <v>2.2202294422853556e-14</v>
       </c>
       <c r="AA10">
-        <v>2.2241073106340594e-14</v>
+        <v>2.2202294422853556e-14</v>
       </c>
       <c r="AB10">
-        <v>1.2445523184833577e-07</v>
+        <v>1.0541196602100161e-06</v>
       </c>
       <c r="AC10">
-        <v>2.2241073106340594e-14</v>
+        <v>2.2202294422853556e-14</v>
       </c>
       <c r="AD10">
-        <v>2.2241073106340594e-14</v>
+        <v>2.2202294422853556e-14</v>
       </c>
       <c r="AE10">
-        <v>2.2241073106340594e-14</v>
+        <v>2.2202294422853556e-14</v>
       </c>
       <c r="AF10">
-        <v>2.2241073106340594e-14</v>
+        <v>2.2202294422853556e-14</v>
       </c>
       <c r="AG10">
-        <v>9.4429675629213888e-06</v>
+        <v>8.692798362241555e-06</v>
       </c>
       <c r="AH10">
-        <v>2.2241073106340594e-14</v>
+        <v>2.2202294422853556e-14</v>
       </c>
       <c r="AI10">
-        <v>3.2781384724547152e-05</v>
+        <v>1.8087524645604848e-05</v>
       </c>
       <c r="AJ10">
-        <v>2.2241073106340594e-14</v>
+        <v>2.2202294422853556e-14</v>
       </c>
       <c r="AK10">
-        <v>2.2241073106340594e-14</v>
+        <v>2.2202294422853556e-14</v>
       </c>
       <c r="AL10">
-        <v>2.2241073106340594e-14</v>
+        <v>2.2202294422853556e-14</v>
       </c>
       <c r="AM10">
-        <v>2.2241073106340594e-14</v>
+        <v>2.2202294422853556e-14</v>
       </c>
       <c r="AN10">
-        <v>0.00012947848808597334</v>
+        <v>0.0063006609960977759</v>
       </c>
       <c r="AO10">
-        <v>2.2241073106340594e-14</v>
+        <v>2.2202294422853556e-14</v>
       </c>
       <c r="AP10">
-        <v>5.3931731534987391e-10</v>
+        <v>5.0770450698320732e-07</v>
       </c>
       <c r="AQ10">
-        <v>2.2241073106340594e-14</v>
+        <v>2.2202294422853556e-14</v>
       </c>
       <c r="AR10">
-        <v>2.2241073106340594e-14</v>
+        <v>2.2202294422853556e-14</v>
       </c>
       <c r="AS10">
-        <v>7.8253979109031645e-10</v>
+        <v>1.5548474355655007e-09</v>
       </c>
       <c r="AT10">
-        <v>2.2241073106340594e-14</v>
+        <v>2.2202294422853556e-14</v>
       </c>
       <c r="AU10">
-        <v>2.2241073106340594e-14</v>
+        <v>2.2202294422853556e-14</v>
       </c>
       <c r="AV10">
-        <v>2.2241073106340594e-14</v>
+        <v>2.2202294422853556e-14</v>
       </c>
       <c r="AW10">
-        <v>2.2241073106340594e-14</v>
+        <v>2.2202294422853556e-14</v>
       </c>
       <c r="AX10">
-        <v>2.2241073106340594e-14</v>
+        <v>2.2202294422853556e-14</v>
       </c>
       <c r="AY10">
-        <v>2.0495546553458317e-05</v>
+        <v>2.6494408888136488e-09</v>
       </c>
       <c r="AZ10">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
+      <c r="A11" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>2.2204458308916436e-14</v>
+        <v>0.00038572293335026005</v>
       </c>
       <c r="C11">
-        <v>2.2204458308916436e-14</v>
+        <v>2.22386861318987e-14</v>
       </c>
       <c r="D11">
-        <v>2.2204458308916436e-14</v>
+        <v>2.22386861318987e-14</v>
       </c>
       <c r="E11">
-        <v>2.2204458308916436e-14</v>
+        <v>2.22386861318987e-14</v>
       </c>
       <c r="F11">
-        <v>2.2204458308916436e-14</v>
+        <v>2.22386861318987e-14</v>
       </c>
       <c r="G11">
-        <v>2.2204458308916436e-14</v>
+        <v>2.22386861318987e-14</v>
       </c>
       <c r="H11">
-        <v>2.2204458308916436e-14</v>
+        <v>2.22386861318987e-14</v>
       </c>
       <c r="I11">
-        <v>2.2204458308916436e-14</v>
+        <v>2.22386861318987e-14</v>
       </c>
       <c r="J11">
-        <v>2.2204458308916436e-14</v>
+        <v>2.22386861318987e-14</v>
       </c>
       <c r="K11">
-        <v>2.2204458308916436e-14</v>
+        <v>2.22386861318987e-14</v>
       </c>
       <c r="L11">
-        <v>2.2204458308916436e-14</v>
+        <v>2.22386861318987e-14</v>
       </c>
       <c r="M11">
-        <v>0.99999508292879258</v>
+        <v>2.22386861318987e-14</v>
       </c>
       <c r="N11">
-        <v>2.2204458308916436e-14</v>
+        <v>2.22386861318987e-14</v>
       </c>
       <c r="O11">
-        <v>2.2204458308916436e-14</v>
+        <v>0.48741767615358411</v>
       </c>
       <c r="P11">
-        <v>2.2204458308916436e-14</v>
+        <v>2.22386861318987e-14</v>
       </c>
       <c r="Q11">
-        <v>2.2204458308916436e-14</v>
+        <v>6.1324677415914273e-13</v>
       </c>
       <c r="R11">
-        <v>2.2204458308916436e-14</v>
+        <v>2.22386861318987e-14</v>
       </c>
       <c r="S11">
-        <v>1.5395087143087213e-12</v>
+        <v>1.5483469080516374e-06</v>
       </c>
       <c r="T11">
-        <v>2.2204458308916436e-14</v>
+        <v>2.22386861318987e-14</v>
       </c>
       <c r="U11">
-        <v>2.2204458308916436e-14</v>
+        <v>2.22386861318987e-14</v>
       </c>
       <c r="V11">
-        <v>2.2204458308916436e-14</v>
+        <v>0.48741767615358411</v>
       </c>
       <c r="W11">
-        <v>2.2204458308916436e-14</v>
+        <v>2.22386861318987e-14</v>
       </c>
       <c r="X11">
-        <v>2.2204458308916436e-14</v>
+        <v>2.22386861318987e-14</v>
       </c>
       <c r="Y11">
-        <v>2.2204458308916436e-14</v>
+        <v>2.22386861318987e-14</v>
       </c>
       <c r="Z11">
-        <v>2.2204458308916436e-14</v>
+        <v>2.22386861318987e-14</v>
       </c>
       <c r="AA11">
-        <v>2.2204458308916436e-14</v>
+        <v>2.22386861318987e-14</v>
       </c>
       <c r="AB11">
-        <v>1.9240708900533046e-12</v>
+        <v>3.1868663521702902e-11</v>
       </c>
       <c r="AC11">
-        <v>2.2204458308916436e-14</v>
+        <v>2.22386861318987e-14</v>
       </c>
       <c r="AD11">
-        <v>2.2204458308916436e-14</v>
+        <v>2.22386861318987e-14</v>
       </c>
       <c r="AE11">
-        <v>2.2204458308916436e-14</v>
+        <v>2.22386861318987e-14</v>
       </c>
       <c r="AF11">
-        <v>2.2204458308916436e-14</v>
+        <v>2.22386861318987e-14</v>
       </c>
       <c r="AG11">
-        <v>2.2204458308916436e-14</v>
+        <v>1.9360570562397896e-06</v>
       </c>
       <c r="AH11">
-        <v>2.2204458308916436e-14</v>
+        <v>2.22386861318987e-14</v>
       </c>
       <c r="AI11">
-        <v>2.2204458308916436e-14</v>
+        <v>5.1799591279347707e-08</v>
       </c>
       <c r="AJ11">
-        <v>2.2204458308916436e-14</v>
+        <v>2.22386861318987e-14</v>
       </c>
       <c r="AK11">
-        <v>2.2204458308916436e-14</v>
+        <v>2.22386861318987e-14</v>
       </c>
       <c r="AL11">
-        <v>2.2204458308916436e-14</v>
+        <v>2.22386861318987e-14</v>
       </c>
       <c r="AM11">
-        <v>2.2204458308916436e-14</v>
+        <v>2.22386861318987e-14</v>
       </c>
       <c r="AN11">
-        <v>9.1034415511154545e-09</v>
+        <v>0.024770301705156008</v>
       </c>
       <c r="AO11">
-        <v>2.2204458308916436e-14</v>
+        <v>2.22386861318987e-14</v>
       </c>
       <c r="AP11">
-        <v>2.2204458308916436e-14</v>
+        <v>1.3519333899082145e-09</v>
       </c>
       <c r="AQ11">
-        <v>2.2204458308916436e-14</v>
+        <v>2.22386861318987e-14</v>
       </c>
       <c r="AR11">
-        <v>2.2204458308916436e-14</v>
+        <v>2.22386861318987e-14</v>
       </c>
       <c r="AS11">
-        <v>4.9079633030711108e-06</v>
+        <v>9.8342478221725313e-11</v>
       </c>
       <c r="AT11">
-        <v>2.2204458308916436e-14</v>
+        <v>2.22386861318987e-14</v>
       </c>
       <c r="AU11">
-        <v>2.2204458308916436e-14</v>
+        <v>2.22386861318987e-14</v>
       </c>
       <c r="AV11">
-        <v>2.2204458308916436e-14</v>
+        <v>2.22386861318987e-14</v>
       </c>
       <c r="AW11">
-        <v>2.2204458308916436e-14</v>
+        <v>2.22386861318987e-14</v>
       </c>
       <c r="AX11">
-        <v>2.2204458308916436e-14</v>
+        <v>2.22386861318987e-14</v>
       </c>
       <c r="AY11">
-        <v>2.2204458308916436e-14</v>
+        <v>5.0853671669630021e-06</v>
       </c>
       <c r="AZ11">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
+      <c r="A12" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>2.2977646552400584e-07</v>
+        <v>8.7458575576315927e-07</v>
       </c>
       <c r="C12">
-        <v>2.2204452884391036e-14</v>
+        <v>2.2204437307402865e-14</v>
       </c>
       <c r="D12">
-        <v>2.2204452884391036e-14</v>
+        <v>2.2204437307402865e-14</v>
       </c>
       <c r="E12">
-        <v>2.2204452884391036e-14</v>
+        <v>2.2204437307402865e-14</v>
       </c>
       <c r="F12">
-        <v>2.2204452884391036e-14</v>
+        <v>2.2204437307402865e-14</v>
       </c>
       <c r="G12">
-        <v>2.2204452884391036e-14</v>
+        <v>2.2204437307402865e-14</v>
       </c>
       <c r="H12">
-        <v>2.2204452884391036e-14</v>
+        <v>2.2204437307402865e-14</v>
       </c>
       <c r="I12">
-        <v>2.2204452884391036e-14</v>
+        <v>2.2204437307402865e-14</v>
       </c>
       <c r="J12">
-        <v>2.2204452884391036e-14</v>
+        <v>2.2204437307402865e-14</v>
       </c>
       <c r="K12">
-        <v>2.2204452884391036e-14</v>
+        <v>2.2204437307402865e-14</v>
       </c>
       <c r="L12">
-        <v>2.2204452884391036e-14</v>
+        <v>2.2204437307402865e-14</v>
       </c>
       <c r="M12">
-        <v>2.2204452884391036e-14</v>
+        <v>2.2204437307402865e-14</v>
       </c>
       <c r="N12">
-        <v>2.2204452884391036e-14</v>
+        <v>2.2204437307402865e-14</v>
       </c>
       <c r="O12">
-        <v>2.2204452884391036e-14</v>
+        <v>2.2204437307402865e-14</v>
       </c>
       <c r="P12">
-        <v>2.2204452884391036e-14</v>
+        <v>2.2204437307402865e-14</v>
       </c>
       <c r="Q12">
-        <v>2.2204452884391036e-14</v>
+        <v>2.2204437307402865e-14</v>
       </c>
       <c r="R12">
-        <v>2.2204452884391036e-14</v>
+        <v>2.2204437307402865e-14</v>
       </c>
       <c r="S12">
-        <v>1.2324054343997292e-09</v>
+        <v>3.7919302119444171e-11</v>
       </c>
       <c r="T12">
-        <v>2.2204452884391036e-14</v>
+        <v>2.2204437307402865e-14</v>
       </c>
       <c r="U12">
-        <v>0.99998286718050966</v>
+        <v>2.2204437307402865e-14</v>
       </c>
       <c r="V12">
-        <v>2.2204452884391036e-14</v>
+        <v>2.2204437307402865e-14</v>
       </c>
       <c r="W12">
-        <v>2.2204452884391036e-14</v>
+        <v>0.99994778366917469</v>
       </c>
       <c r="X12">
-        <v>2.2204452884391036e-14</v>
+        <v>2.2204437307402865e-14</v>
       </c>
       <c r="Y12">
-        <v>2.2204452884391036e-14</v>
+        <v>2.2204437307402865e-14</v>
       </c>
       <c r="Z12">
-        <v>2.2204452884391036e-14</v>
+        <v>2.2204437307402865e-14</v>
       </c>
       <c r="AA12">
-        <v>2.2204452884391036e-14</v>
+        <v>2.2204437307402865e-14</v>
       </c>
       <c r="AB12">
-        <v>1.8837899844547052e-06</v>
+        <v>2.4622516533808839e-11</v>
       </c>
       <c r="AC12">
-        <v>2.2204452884391036e-14</v>
+        <v>2.2204437307402865e-14</v>
       </c>
       <c r="AD12">
-        <v>2.2204452884391036e-14</v>
+        <v>2.2204437307402865e-14</v>
       </c>
       <c r="AE12">
-        <v>2.2204452884391036e-14</v>
+        <v>2.2204437307402865e-14</v>
       </c>
       <c r="AF12">
-        <v>2.2204452884391036e-14</v>
+        <v>2.2204437307402865e-14</v>
       </c>
       <c r="AG12">
-        <v>1.0645142275777264e-06</v>
+        <v>2.2204437307402865e-14</v>
       </c>
       <c r="AH12">
-        <v>2.2204452884391036e-14</v>
+        <v>2.2204437307402865e-14</v>
       </c>
       <c r="AI12">
-        <v>3.4015145441279699e-06</v>
+        <v>2.2204437307402865e-14</v>
       </c>
       <c r="AJ12">
-        <v>2.2204452884391036e-14</v>
+        <v>2.2204437307402865e-14</v>
       </c>
       <c r="AK12">
-        <v>2.2204452884391036e-14</v>
+        <v>2.2204437307402865e-14</v>
       </c>
       <c r="AL12">
-        <v>2.2204452884391036e-14</v>
+        <v>2.2204437307402865e-14</v>
       </c>
       <c r="AM12">
-        <v>2.2204452884391036e-14</v>
+        <v>2.2204437307402865e-14</v>
       </c>
       <c r="AN12">
-        <v>3.0395239228121602e-06</v>
+        <v>2.2204437307402865e-14</v>
       </c>
       <c r="AO12">
-        <v>2.2204452884391036e-14</v>
+        <v>2.2204437307402865e-14</v>
       </c>
       <c r="AP12">
-        <v>7.3568986291442834e-06</v>
+        <v>2.2204437307402865e-14</v>
       </c>
       <c r="AQ12">
-        <v>2.2204452884391036e-14</v>
+        <v>2.2204437307402865e-14</v>
       </c>
       <c r="AR12">
-        <v>2.2204452884391036e-14</v>
+        <v>2.2204437307402865e-14</v>
       </c>
       <c r="AS12">
-        <v>1.5420143021199746e-07</v>
+        <v>4.1572602239688585e-06</v>
       </c>
       <c r="AT12">
-        <v>2.2204452884391036e-14</v>
+        <v>2.2204437307402865e-14</v>
       </c>
       <c r="AU12">
-        <v>2.2204452884391036e-14</v>
+        <v>2.2204437307402865e-14</v>
       </c>
       <c r="AV12">
-        <v>2.2204452884391036e-14</v>
+        <v>2.2204437307402865e-14</v>
       </c>
       <c r="AW12">
-        <v>2.2204452884391036e-14</v>
+        <v>2.2204437307402865e-14</v>
       </c>
       <c r="AX12">
-        <v>2.2204452884391036e-14</v>
+        <v>2.2204437307402865e-14</v>
       </c>
       <c r="AY12">
-        <v>1.3669926767640928e-09</v>
+        <v>4.7184421326860608e-05</v>
       </c>
       <c r="AZ12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
+      <c r="A13" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.0012530093129938631</v>
+        <v>1.1880762258509563e-08</v>
       </c>
       <c r="C13">
-        <v>2.2203446436608435e-14</v>
+        <v>2.2202529025017182e-14</v>
       </c>
       <c r="D13">
-        <v>2.2203446436608435e-14</v>
+        <v>2.2202529025017182e-14</v>
       </c>
       <c r="E13">
-        <v>2.2203446436608435e-14</v>
+        <v>2.2202529025017182e-14</v>
       </c>
       <c r="F13">
-        <v>2.2203446436608435e-14</v>
+        <v>2.2202529025017182e-14</v>
       </c>
       <c r="G13">
-        <v>2.2203446436608435e-14</v>
+        <v>2.2202529025017182e-14</v>
       </c>
       <c r="H13">
-        <v>2.2203446436608435e-14</v>
+        <v>2.2202529025017182e-14</v>
       </c>
       <c r="I13">
-        <v>2.2203446436608435e-14</v>
+        <v>2.2202529025017182e-14</v>
       </c>
       <c r="J13">
-        <v>2.2203446436608435e-14</v>
+        <v>2.2202529025017182e-14</v>
       </c>
       <c r="K13">
-        <v>2.2203446436608435e-14</v>
+        <v>2.2202529025017182e-14</v>
       </c>
       <c r="L13">
-        <v>2.2203446436608435e-14</v>
+        <v>2.2202529025017182e-14</v>
       </c>
       <c r="M13">
-        <v>2.2203446436608435e-14</v>
+        <v>2.2202529025017182e-14</v>
       </c>
       <c r="N13">
-        <v>2.2203446436608435e-14</v>
+        <v>2.2202529025017182e-14</v>
       </c>
       <c r="O13">
-        <v>2.2203446436608435e-14</v>
+        <v>2.2202529025017182e-14</v>
       </c>
       <c r="P13">
-        <v>2.2203446436608435e-14</v>
+        <v>2.2202529025017182e-14</v>
       </c>
       <c r="Q13">
-        <v>0.00012901323318166932</v>
+        <v>2.2202529025017182e-14</v>
       </c>
       <c r="R13">
-        <v>2.2203446436608435e-14</v>
+        <v>2.2202529025017182e-14</v>
       </c>
       <c r="S13">
-        <v>0.00025014554200882726</v>
+        <v>1.1298694432092327e-10</v>
       </c>
       <c r="T13">
-        <v>2.2203446436608435e-14</v>
+        <v>2.2202529025017182e-14</v>
       </c>
       <c r="U13">
-        <v>2.2203446436608435e-14</v>
+        <v>2.2202529025017182e-14</v>
       </c>
       <c r="V13">
-        <v>0.99770078447357313</v>
+        <v>2.2202529025017182e-14</v>
       </c>
       <c r="W13">
-        <v>2.2203446436608435e-14</v>
+        <v>2.2202529025017182e-14</v>
       </c>
       <c r="X13">
-        <v>2.2203446436608435e-14</v>
+        <v>2.2202529025017182e-14</v>
       </c>
       <c r="Y13">
-        <v>2.2203446436608435e-14</v>
+        <v>2.2202529025017182e-14</v>
       </c>
       <c r="Z13">
-        <v>2.2203446436608435e-14</v>
+        <v>0.99559286582653539</v>
       </c>
       <c r="AA13">
-        <v>2.2203446436608435e-14</v>
+        <v>2.2202529025017182e-14</v>
       </c>
       <c r="AB13">
-        <v>9.8880745699876052e-10</v>
+        <v>2.4992014446723936e-07</v>
       </c>
       <c r="AC13">
-        <v>2.2203446436608435e-14</v>
+        <v>2.2202529025017182e-14</v>
       </c>
       <c r="AD13">
-        <v>2.2203446436608435e-14</v>
+        <v>2.2202529025017182e-14</v>
       </c>
       <c r="AE13">
-        <v>2.2203446436608435e-14</v>
+        <v>2.2202529025017182e-14</v>
       </c>
       <c r="AF13">
-        <v>2.2203446436608435e-14</v>
+        <v>2.2202529025017182e-14</v>
       </c>
       <c r="AG13">
-        <v>4.9347035333325902e-07</v>
+        <v>2.2202529025017182e-14</v>
       </c>
       <c r="AH13">
-        <v>2.2203446436608435e-14</v>
+        <v>2.2202529025017182e-14</v>
       </c>
       <c r="AI13">
-        <v>5.9762015197839026e-13</v>
+        <v>0.00038654806071117758</v>
       </c>
       <c r="AJ13">
-        <v>2.2203446436608435e-14</v>
+        <v>2.2202529025017182e-14</v>
       </c>
       <c r="AK13">
-        <v>2.2203446436608435e-14</v>
+        <v>2.2202529025017182e-14</v>
       </c>
       <c r="AL13">
-        <v>2.2203446436608435e-14</v>
+        <v>2.2202529025017182e-14</v>
       </c>
       <c r="AM13">
-        <v>2.2203446436608435e-14</v>
+        <v>2.2202529025017182e-14</v>
       </c>
       <c r="AN13">
-        <v>0.00017968120001599886</v>
+        <v>0.0040175680012039805</v>
       </c>
       <c r="AO13">
-        <v>2.2203446436608435e-14</v>
+        <v>2.2202529025017182e-14</v>
       </c>
       <c r="AP13">
-        <v>0.00010783638119585617</v>
+        <v>1.2275171881321179e-08</v>
       </c>
       <c r="AQ13">
-        <v>2.2203446436608435e-14</v>
+        <v>2.2202529025017182e-14</v>
       </c>
       <c r="AR13">
-        <v>2.2203446436608435e-14</v>
+        <v>2.2202529025017182e-14</v>
       </c>
       <c r="AS13">
-        <v>3.6829709613102597e-10</v>
+        <v>2.7439127611441012e-06</v>
       </c>
       <c r="AT13">
-        <v>2.2203446436608435e-14</v>
+        <v>2.2202529025017182e-14</v>
       </c>
       <c r="AU13">
-        <v>2.2203446436608435e-14</v>
+        <v>2.2202529025017182e-14</v>
       </c>
       <c r="AV13">
-        <v>2.2203446436608435e-14</v>
+        <v>2.2202529025017182e-14</v>
       </c>
       <c r="AW13">
-        <v>2.2203446436608435e-14</v>
+        <v>2.2202529025017182e-14</v>
       </c>
       <c r="AX13">
-        <v>2.2203446436608435e-14</v>
+        <v>2.2202529025017182e-14</v>
       </c>
       <c r="AY13">
-        <v>0.00037903502810915054</v>
+        <v>8.8121379086137577e-12</v>
       </c>
       <c r="AZ13">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
+      <c r="A14" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>0.019687889922429487</v>
+        <v>2.1540436122721481e-05</v>
       </c>
       <c r="C14">
-        <v>0.019687434318256213</v>
+        <v>2.2204408343947391e-14</v>
       </c>
       <c r="D14">
-        <v>0.019687434318256206</v>
+        <v>2.2204408343947391e-14</v>
       </c>
       <c r="E14">
-        <v>0.019687434318256238</v>
+        <v>2.2204408343947391e-14</v>
       </c>
       <c r="F14">
-        <v>0.019687434318256238</v>
+        <v>2.2204408343947391e-14</v>
       </c>
       <c r="G14">
-        <v>0.019687434318256196</v>
+        <v>2.2204408343947391e-14</v>
       </c>
       <c r="H14">
-        <v>0.01968743431825614</v>
+        <v>2.2204408343947391e-14</v>
       </c>
       <c r="I14">
-        <v>0.01968743431825614</v>
+        <v>2.2204408343947391e-14</v>
       </c>
       <c r="J14">
-        <v>0.01968743431825614</v>
+        <v>2.2204408343947391e-14</v>
       </c>
       <c r="K14">
-        <v>0.019687434318256297</v>
+        <v>2.2204408343947391e-14</v>
       </c>
       <c r="L14">
-        <v>0.019687434318256297</v>
+        <v>2.2204408343947391e-14</v>
       </c>
       <c r="M14">
-        <v>0.019687434318256297</v>
+        <v>2.2204408343947391e-14</v>
       </c>
       <c r="N14">
-        <v>0.019687434318256297</v>
+        <v>2.2204408343947391e-14</v>
       </c>
       <c r="O14">
-        <v>0.019687434318256297</v>
+        <v>2.2204408343947391e-14</v>
       </c>
       <c r="P14">
-        <v>0.019687434318256297</v>
+        <v>0.99988253076060096</v>
       </c>
       <c r="Q14">
-        <v>0.019687434318256297</v>
+        <v>2.2204408343947391e-14</v>
       </c>
       <c r="R14">
-        <v>0.019687434318256172</v>
+        <v>2.2204408343947391e-14</v>
       </c>
       <c r="S14">
-        <v>0.019687439070480268</v>
+        <v>2.2204408343947391e-14</v>
       </c>
       <c r="T14">
-        <v>0.019687434318256175</v>
+        <v>2.2204408343947391e-14</v>
       </c>
       <c r="U14">
-        <v>0.019687434318256175</v>
+        <v>2.2204408343947391e-14</v>
       </c>
       <c r="V14">
-        <v>0.019687434318256175</v>
+        <v>2.2204408343947391e-14</v>
       </c>
       <c r="W14">
-        <v>0.035314212808783295</v>
+        <v>2.2204408343947391e-14</v>
       </c>
       <c r="X14">
-        <v>0.019687434318256113</v>
+        <v>2.2204408343947391e-14</v>
       </c>
       <c r="Y14">
-        <v>0.019687434318256113</v>
+        <v>2.2204408343947391e-14</v>
       </c>
       <c r="Z14">
-        <v>0.019687434318256113</v>
+        <v>2.2204408343947391e-14</v>
       </c>
       <c r="AA14">
-        <v>0.019687434318256175</v>
+        <v>2.2204408343947391e-14</v>
       </c>
       <c r="AB14">
-        <v>0.019688324419431438</v>
+        <v>4.946831190666479e-10</v>
       </c>
       <c r="AC14">
-        <v>0.01968743431825612</v>
+        <v>2.2204408343947391e-14</v>
       </c>
       <c r="AD14">
-        <v>0.01968743431825612</v>
+        <v>2.2204408343947391e-14</v>
       </c>
       <c r="AE14">
-        <v>0.01968743431825612</v>
+        <v>2.2204408343947391e-14</v>
       </c>
       <c r="AF14">
-        <v>0.01968743431825612</v>
+        <v>2.2204408343947391e-14</v>
       </c>
       <c r="AG14">
-        <v>0.01968743431825612</v>
+        <v>2.2204408343947391e-14</v>
       </c>
       <c r="AH14">
-        <v>0.01968743431825612</v>
+        <v>2.2204408343947391e-14</v>
       </c>
       <c r="AI14">
-        <v>0.019687434318256185</v>
+        <v>2.2204408343947391e-14</v>
       </c>
       <c r="AJ14">
-        <v>0.019687434318256185</v>
+        <v>2.2204408343947391e-14</v>
       </c>
       <c r="AK14">
-        <v>0.019687434318256185</v>
+        <v>2.2204408343947391e-14</v>
       </c>
       <c r="AL14">
-        <v>0.019687434318256185</v>
+        <v>2.2204408343947391e-14</v>
       </c>
       <c r="AM14">
-        <v>0.01968743431825614</v>
+        <v>2.2204408343947391e-14</v>
       </c>
       <c r="AN14">
-        <v>0.019687434318495751</v>
+        <v>2.2204408343947391e-14</v>
       </c>
       <c r="AO14">
-        <v>0.019687434318256185</v>
+        <v>2.2204408343947391e-14</v>
       </c>
       <c r="AP14">
-        <v>0.019687434318256185</v>
+        <v>2.2204408343947391e-14</v>
       </c>
       <c r="AQ14">
-        <v>0.019687434318256185</v>
+        <v>2.2204408343947391e-14</v>
       </c>
       <c r="AR14">
-        <v>0.019687434318256185</v>
+        <v>2.2204408343947391e-14</v>
       </c>
       <c r="AS14">
-        <v>0.01968756712414459</v>
+        <v>9.5924277397406083e-05</v>
       </c>
       <c r="AT14">
-        <v>0.019687434318256185</v>
+        <v>2.2204408343947391e-14</v>
       </c>
       <c r="AU14">
-        <v>0.019687434318256185</v>
+        <v>2.2204408343947391e-14</v>
       </c>
       <c r="AV14">
-        <v>0.019687434318256185</v>
+        <v>2.2204408343947391e-14</v>
       </c>
       <c r="AW14">
-        <v>0.019687434318256185</v>
+        <v>2.2204408343947391e-14</v>
       </c>
       <c r="AX14">
-        <v>0.019687434318256185</v>
+        <v>2.2204408343947391e-14</v>
       </c>
       <c r="AY14">
-        <v>0.019687456651219636</v>
+        <v>4.0301963786065063e-09</v>
       </c>
       <c r="AZ14">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
-        <v>14</v>
+      <c r="A15" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.00049435213589662001</v>
+        <v>1.4281781773817062e-08</v>
       </c>
       <c r="C15">
-        <v>2.2202154356319437e-14</v>
+        <v>2.2204228163456106e-14</v>
       </c>
       <c r="D15">
-        <v>2.2202154356319437e-14</v>
+        <v>2.2204228163456106e-14</v>
       </c>
       <c r="E15">
-        <v>2.2202154356319437e-14</v>
+        <v>2.2204228163456106e-14</v>
       </c>
       <c r="F15">
-        <v>2.2202154356319437e-14</v>
+        <v>2.2204228163456106e-14</v>
       </c>
       <c r="G15">
-        <v>2.2202154356319437e-14</v>
+        <v>2.2204228163456106e-14</v>
       </c>
       <c r="H15">
-        <v>2.2202154356319437e-14</v>
+        <v>2.2204228163456106e-14</v>
       </c>
       <c r="I15">
-        <v>2.2202154356319437e-14</v>
+        <v>2.2204228163456106e-14</v>
       </c>
       <c r="J15">
-        <v>2.2202154356319437e-14</v>
+        <v>2.2204228163456106e-14</v>
       </c>
       <c r="K15">
-        <v>2.2202154356319437e-14</v>
+        <v>2.2204228163456106e-14</v>
       </c>
       <c r="L15">
-        <v>2.2202154356319437e-14</v>
+        <v>2.2204228163456106e-14</v>
       </c>
       <c r="M15">
-        <v>2.2202154356319437e-14</v>
+        <v>2.2204228163456106e-14</v>
       </c>
       <c r="N15">
-        <v>2.2202154356319437e-14</v>
+        <v>2.2204228163456106e-14</v>
       </c>
       <c r="O15">
-        <v>2.2202154356319437e-14</v>
+        <v>2.2204228163456106e-14</v>
       </c>
       <c r="P15">
-        <v>2.2202154356319437e-14</v>
+        <v>2.2204228163456106e-14</v>
       </c>
       <c r="Q15">
-        <v>2.2202154356319437e-14</v>
+        <v>2.2204228163456106e-14</v>
       </c>
       <c r="R15">
-        <v>2.2202154356319437e-14</v>
+        <v>2.2204228163456106e-14</v>
       </c>
       <c r="S15">
-        <v>2.2202154356319437e-14</v>
+        <v>9.3223155463333896e-05</v>
       </c>
       <c r="T15">
-        <v>2.2202154356319437e-14</v>
+        <v>2.2204228163456106e-14</v>
       </c>
       <c r="U15">
-        <v>2.2202154356319437e-14</v>
+        <v>2.2204228163456106e-14</v>
       </c>
       <c r="V15">
-        <v>2.2202154356319437e-14</v>
+        <v>2.2204228163456106e-14</v>
       </c>
       <c r="W15">
-        <v>2.2202154356319437e-14</v>
+        <v>2.2204228163456106e-14</v>
       </c>
       <c r="X15">
-        <v>2.2202154356319437e-14</v>
+        <v>2.2204228163456106e-14</v>
       </c>
       <c r="Y15">
-        <v>2.2202154356319437e-14</v>
+        <v>0.99947602307825489</v>
       </c>
       <c r="Z15">
-        <v>0.98799895333592724</v>
+        <v>2.2204228163456106e-14</v>
       </c>
       <c r="AA15">
-        <v>2.2202154356319437e-14</v>
+        <v>2.2204228163456106e-14</v>
       </c>
       <c r="AB15">
-        <v>3.0138739485063294e-11</v>
+        <v>2.4562127161180053e-05</v>
       </c>
       <c r="AC15">
-        <v>2.2202154356319437e-14</v>
+        <v>2.2204228163456106e-14</v>
       </c>
       <c r="AD15">
-        <v>2.2202154356319437e-14</v>
+        <v>2.2204228163456106e-14</v>
       </c>
       <c r="AE15">
-        <v>2.2202154356319437e-14</v>
+        <v>2.2204228163456106e-14</v>
       </c>
       <c r="AF15">
-        <v>2.2202154356319437e-14</v>
+        <v>2.2204228163456106e-14</v>
       </c>
       <c r="AG15">
-        <v>2.2202154356319437e-14</v>
+        <v>2.2204228163456106e-14</v>
       </c>
       <c r="AH15">
-        <v>2.2202154356319437e-14</v>
+        <v>2.2204228163456106e-14</v>
       </c>
       <c r="AI15">
-        <v>8.6973438108386228e-06</v>
+        <v>3.3655426612562485e-05</v>
       </c>
       <c r="AJ15">
-        <v>2.2202154356319437e-14</v>
+        <v>2.2204228163456106e-14</v>
       </c>
       <c r="AK15">
-        <v>2.2202154356319437e-14</v>
+        <v>2.2204228163456106e-14</v>
       </c>
       <c r="AL15">
-        <v>2.2202154356319437e-14</v>
+        <v>2.2204228163456106e-14</v>
       </c>
       <c r="AM15">
-        <v>2.2202154356319437e-14</v>
+        <v>2.2204228163456106e-14</v>
       </c>
       <c r="AN15">
-        <v>2.0667605343589522e-11</v>
+        <v>0.00036873298879476919</v>
       </c>
       <c r="AO15">
-        <v>2.2202154356319437e-14</v>
+        <v>2.2204228163456106e-14</v>
       </c>
       <c r="AP15">
-        <v>3.0004416002168038e-13</v>
+        <v>2.2204228163456106e-14</v>
       </c>
       <c r="AQ15">
-        <v>2.2202154356319437e-14</v>
+        <v>2.2204228163456106e-14</v>
       </c>
       <c r="AR15">
-        <v>2.2202154356319437e-14</v>
+        <v>2.2204228163456106e-14</v>
       </c>
       <c r="AS15">
-        <v>0.011497997132240621</v>
+        <v>5.508737719274462e-09</v>
       </c>
       <c r="AT15">
-        <v>2.2202154356319437e-14</v>
+        <v>2.2204228163456106e-14</v>
       </c>
       <c r="AU15">
-        <v>2.2202154356319437e-14</v>
+        <v>2.2204228163456106e-14</v>
       </c>
       <c r="AV15">
-        <v>2.2202154356319437e-14</v>
+        <v>2.2204228163456106e-14</v>
       </c>
       <c r="AW15">
-        <v>2.2202154356319437e-14</v>
+        <v>2.2204228163456106e-14</v>
       </c>
       <c r="AX15">
-        <v>2.2202154356319437e-14</v>
+        <v>2.2204228163456106e-14</v>
       </c>
       <c r="AY15">
-        <v>8.5703380894042015e-14</v>
+        <v>3.7834322612420567e-06</v>
       </c>
       <c r="AZ15">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
+      <c r="A16" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>4.65260627805187e-06</v>
+        <v>7.697782722851834e-06</v>
       </c>
       <c r="C16">
-        <v>2.2204458213808791e-14</v>
+        <v>2.2202079728933784e-14</v>
       </c>
       <c r="D16">
-        <v>2.2204458213808791e-14</v>
+        <v>2.2202079728933784e-14</v>
       </c>
       <c r="E16">
-        <v>2.2204458213808791e-14</v>
+        <v>0.014296203383679717</v>
       </c>
       <c r="F16">
-        <v>2.2204458213808791e-14</v>
+        <v>2.2202079728933784e-14</v>
       </c>
       <c r="G16">
-        <v>2.2204458213808791e-14</v>
+        <v>2.2202079728933784e-14</v>
       </c>
       <c r="H16">
-        <v>2.2204458213808791e-14</v>
+        <v>2.2202079728933784e-14</v>
       </c>
       <c r="I16">
-        <v>2.2204458213808791e-14</v>
+        <v>2.2202079728933784e-14</v>
       </c>
       <c r="J16">
-        <v>2.2204458213808791e-14</v>
+        <v>2.2202079728933784e-14</v>
       </c>
       <c r="K16">
-        <v>2.2204458213808791e-14</v>
+        <v>2.2202079728933784e-14</v>
       </c>
       <c r="L16">
-        <v>2.2204458213808791e-14</v>
+        <v>2.2202079728933784e-14</v>
       </c>
       <c r="M16">
-        <v>2.2204458213808791e-14</v>
+        <v>2.2202079728933784e-14</v>
       </c>
       <c r="N16">
-        <v>2.2204458213808791e-14</v>
+        <v>2.2202079728933784e-14</v>
       </c>
       <c r="O16">
-        <v>2.2204458213808791e-14</v>
+        <v>2.2202079728933784e-14</v>
       </c>
       <c r="P16">
-        <v>0.99999486875894572</v>
+        <v>0.98568497766767327</v>
       </c>
       <c r="Q16">
-        <v>2.2204458213808791e-14</v>
+        <v>2.2202079728933784e-14</v>
       </c>
       <c r="R16">
-        <v>2.2204458213808791e-14</v>
+        <v>2.2202079728933784e-14</v>
       </c>
       <c r="S16">
-        <v>3.1295327049176955e-11</v>
+        <v>2.2202079728933784e-14</v>
       </c>
       <c r="T16">
-        <v>2.2204458213808791e-14</v>
+        <v>2.2202079728933784e-14</v>
       </c>
       <c r="U16">
-        <v>2.2204458213808791e-14</v>
+        <v>2.2202079728933784e-14</v>
       </c>
       <c r="V16">
-        <v>2.2204458213808791e-14</v>
+        <v>2.2202079728933784e-14</v>
       </c>
       <c r="W16">
-        <v>2.2204458213808791e-14</v>
+        <v>2.2202079728933784e-14</v>
       </c>
       <c r="X16">
-        <v>2.2204458213808791e-14</v>
+        <v>2.2202079728933784e-14</v>
       </c>
       <c r="Y16">
-        <v>2.2204458213808791e-14</v>
+        <v>2.2202079728933784e-14</v>
       </c>
       <c r="Z16">
-        <v>2.2204458213808791e-14</v>
+        <v>2.2202079728933784e-14</v>
       </c>
       <c r="AA16">
-        <v>2.2204458213808791e-14</v>
+        <v>2.2202079728933784e-14</v>
       </c>
       <c r="AB16">
-        <v>7.2808616066353423e-09</v>
+        <v>1.3418489953125554e-09</v>
       </c>
       <c r="AC16">
-        <v>2.2204458213808791e-14</v>
+        <v>2.2202079728933784e-14</v>
       </c>
       <c r="AD16">
-        <v>2.2204458213808791e-14</v>
+        <v>2.2202079728933784e-14</v>
       </c>
       <c r="AE16">
-        <v>2.2204458213808791e-14</v>
+        <v>2.2202079728933784e-14</v>
       </c>
       <c r="AF16">
-        <v>2.2204458213808791e-14</v>
+        <v>2.2202079728933784e-14</v>
       </c>
       <c r="AG16">
-        <v>2.2204458213808791e-14</v>
+        <v>2.2202079728933784e-14</v>
       </c>
       <c r="AH16">
-        <v>2.2204458213808791e-14</v>
+        <v>2.2202079728933784e-14</v>
       </c>
       <c r="AI16">
-        <v>2.2204458213808791e-14</v>
+        <v>2.2202079728933784e-14</v>
       </c>
       <c r="AJ16">
-        <v>2.2204458213808791e-14</v>
+        <v>2.2202079728933784e-14</v>
       </c>
       <c r="AK16">
-        <v>2.2204458213808791e-14</v>
+        <v>2.2202079728933784e-14</v>
       </c>
       <c r="AL16">
-        <v>2.2204458213808791e-14</v>
+        <v>2.2202079728933784e-14</v>
       </c>
       <c r="AM16">
-        <v>2.2204458213808791e-14</v>
+        <v>2.2202079728933784e-14</v>
       </c>
       <c r="AN16">
-        <v>2.3160783458758716e-13</v>
+        <v>2.2202079728933784e-14</v>
       </c>
       <c r="AO16">
-        <v>2.2204458213808791e-14</v>
+        <v>2.2202079728933784e-14</v>
       </c>
       <c r="AP16">
-        <v>1.9076514707875669e-12</v>
+        <v>2.2202079728933784e-14</v>
       </c>
       <c r="AQ16">
-        <v>2.2204458213808791e-14</v>
+        <v>2.2202079728933784e-14</v>
       </c>
       <c r="AR16">
-        <v>2.2204458213808791e-14</v>
+        <v>2.2202079728933784e-14</v>
       </c>
       <c r="AS16">
-        <v>4.7034879221640616e-07</v>
+        <v>1.1112493040035429e-05</v>
       </c>
       <c r="AT16">
-        <v>2.2204458213808791e-14</v>
+        <v>2.2202079728933784e-14</v>
       </c>
       <c r="AU16">
-        <v>2.2204458213808791e-14</v>
+        <v>2.2202079728933784e-14</v>
       </c>
       <c r="AV16">
-        <v>2.2204458213808791e-14</v>
+        <v>2.2202079728933784e-14</v>
       </c>
       <c r="AW16">
-        <v>2.2204458213808791e-14</v>
+        <v>2.2202079728933784e-14</v>
       </c>
       <c r="AX16">
-        <v>2.2204458213808791e-14</v>
+        <v>2.2202079728933784e-14</v>
       </c>
       <c r="AY16">
-        <v>9.7075512794120813e-10</v>
+        <v>7.3300582440072457e-09</v>
       </c>
       <c r="AZ16">
         <v>15</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
+      <c r="A17" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="B17">
-        <v>1.9883219139560188e-06</v>
+        <v>1.6630308445910877e-05</v>
       </c>
       <c r="C17">
-        <v>2.2202320381631413e-14</v>
+        <v>2.2204435774491014e-14</v>
       </c>
       <c r="D17">
-        <v>2.2202320381631413e-14</v>
+        <v>2.2204435774491014e-14</v>
       </c>
       <c r="E17">
-        <v>2.2202320381631413e-14</v>
+        <v>2.2204435774491014e-14</v>
       </c>
       <c r="F17">
-        <v>2.2202320381631413e-14</v>
+        <v>2.2204435774491014e-14</v>
       </c>
       <c r="G17">
-        <v>2.2202320381631413e-14</v>
+        <v>2.2204435774491014e-14</v>
       </c>
       <c r="H17">
-        <v>2.2202320381631413e-14</v>
+        <v>2.2204435774491014e-14</v>
       </c>
       <c r="I17">
-        <v>2.2202320381631413e-14</v>
+        <v>2.2204435774491014e-14</v>
       </c>
       <c r="J17">
-        <v>2.2202320381631413e-14</v>
+        <v>2.2204435774491014e-14</v>
       </c>
       <c r="K17">
-        <v>2.2202320381631413e-14</v>
+        <v>2.2204435774491014e-14</v>
       </c>
       <c r="L17">
-        <v>2.2202320381631413e-14</v>
+        <v>2.2204435774491014e-14</v>
       </c>
       <c r="M17">
-        <v>2.2202320381631413e-14</v>
+        <v>2.2204435774491014e-14</v>
       </c>
       <c r="N17">
-        <v>2.2202320381631413e-14</v>
+        <v>2.2204435774491014e-14</v>
       </c>
       <c r="O17">
-        <v>2.2202320381631413e-14</v>
+        <v>2.2204435774491014e-14</v>
       </c>
       <c r="P17">
-        <v>2.2202320381631413e-14</v>
+        <v>0.99994433074808919</v>
       </c>
       <c r="Q17">
-        <v>2.2202320381631413e-14</v>
+        <v>2.2204435774491014e-14</v>
       </c>
       <c r="R17">
-        <v>2.2202320381631413e-14</v>
+        <v>2.2204435774491014e-14</v>
       </c>
       <c r="S17">
-        <v>0.0039208721618837032</v>
+        <v>2.2204435774491014e-14</v>
       </c>
       <c r="T17">
-        <v>2.2202320381631413e-14</v>
+        <v>2.2204435774491014e-14</v>
       </c>
       <c r="U17">
-        <v>2.2202320381631413e-14</v>
+        <v>2.2204435774491014e-14</v>
       </c>
       <c r="V17">
-        <v>2.2202320381631413e-14</v>
+        <v>2.2204435774491014e-14</v>
       </c>
       <c r="W17">
-        <v>2.2202320381631413e-14</v>
+        <v>2.2204435774491014e-14</v>
       </c>
       <c r="X17">
-        <v>2.2202320381631413e-14</v>
+        <v>2.2204435774491014e-14</v>
       </c>
       <c r="Y17">
-        <v>0.99476229085968959</v>
+        <v>2.2204435774491014e-14</v>
       </c>
       <c r="Z17">
-        <v>2.2202320381631413e-14</v>
+        <v>2.2204435774491014e-14</v>
       </c>
       <c r="AA17">
-        <v>2.2202320381631413e-14</v>
+        <v>2.2204435774491014e-14</v>
       </c>
       <c r="AB17">
-        <v>5.5481811847286728e-06</v>
+        <v>1.1320135531844675e-09</v>
       </c>
       <c r="AC17">
-        <v>2.2202320381631413e-14</v>
+        <v>2.2204435774491014e-14</v>
       </c>
       <c r="AD17">
-        <v>2.2202320381631413e-14</v>
+        <v>2.2204435774491014e-14</v>
       </c>
       <c r="AE17">
-        <v>2.2202320381631413e-14</v>
+        <v>2.2204435774491014e-14</v>
       </c>
       <c r="AF17">
-        <v>2.2202320381631413e-14</v>
+        <v>2.2204435774491014e-14</v>
       </c>
       <c r="AG17">
-        <v>2.2202320381631413e-14</v>
+        <v>2.2204435774491014e-14</v>
       </c>
       <c r="AH17">
-        <v>2.2202320381631413e-14</v>
+        <v>2.2204435774491014e-14</v>
       </c>
       <c r="AI17">
-        <v>0.00080669902038362753</v>
+        <v>2.2204435774491014e-14</v>
       </c>
       <c r="AJ17">
-        <v>2.2202320381631413e-14</v>
+        <v>2.2204435774491014e-14</v>
       </c>
       <c r="AK17">
-        <v>2.2202320381631413e-14</v>
+        <v>2.2204435774491014e-14</v>
       </c>
       <c r="AL17">
-        <v>2.2202320381631413e-14</v>
+        <v>2.2204435774491014e-14</v>
       </c>
       <c r="AM17">
-        <v>2.2202320381631413e-14</v>
+        <v>2.2204435774491014e-14</v>
       </c>
       <c r="AN17">
-        <v>3.5999315869706475e-05</v>
+        <v>2.2204435774491014e-14</v>
       </c>
       <c r="AO17">
-        <v>2.2202320381631413e-14</v>
+        <v>2.2204435774491014e-14</v>
       </c>
       <c r="AP17">
-        <v>2.2202320381631413e-14</v>
+        <v>2.2204435774491014e-14</v>
       </c>
       <c r="AQ17">
-        <v>2.2202320381631413e-14</v>
+        <v>2.2204435774491014e-14</v>
       </c>
       <c r="AR17">
-        <v>2.2202320381631413e-14</v>
+        <v>2.2204435774491014e-14</v>
       </c>
       <c r="AS17">
-        <v>3.6756236258039787e-09</v>
+        <v>3.9032155447672158e-05</v>
       </c>
       <c r="AT17">
-        <v>2.2202320381631413e-14</v>
+        <v>2.2204435774491014e-14</v>
       </c>
       <c r="AU17">
-        <v>1.0849730977019939e-11</v>
+        <v>2.2204435774491014e-14</v>
       </c>
       <c r="AV17">
-        <v>2.2202320381631413e-14</v>
+        <v>2.2204435774491014e-14</v>
       </c>
       <c r="AW17">
-        <v>2.2202320381631413e-14</v>
+        <v>2.2204435774491014e-14</v>
       </c>
       <c r="AX17">
-        <v>2.2202320381631413e-14</v>
+        <v>2.2204435774491014e-14</v>
       </c>
       <c r="AY17">
-        <v>0.00046659845169095816</v>
+        <v>5.6550046264515823e-09</v>
       </c>
       <c r="AZ17">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="s">
-        <v>17</v>
+      <c r="A18" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="B18">
-        <v>1.1713318896616241e-05</v>
+        <v>4.8331871012009532e-08</v>
       </c>
       <c r="C18">
-        <v>2.2204447099110547e-14</v>
+        <v>2.2204102052306441e-14</v>
       </c>
       <c r="D18">
-        <v>2.2204447099110547e-14</v>
+        <v>2.2204102052306441e-14</v>
       </c>
       <c r="E18">
-        <v>2.2204447099110547e-14</v>
+        <v>2.2204102052306441e-14</v>
       </c>
       <c r="F18">
-        <v>2.2204447099110547e-14</v>
+        <v>2.2204102052306441e-14</v>
       </c>
       <c r="G18">
-        <v>2.2204447099110547e-14</v>
+        <v>2.2204102052306441e-14</v>
       </c>
       <c r="H18">
-        <v>2.2204447099110547e-14</v>
+        <v>2.2204102052306441e-14</v>
       </c>
       <c r="I18">
-        <v>2.2204447099110547e-14</v>
+        <v>2.2204102052306441e-14</v>
       </c>
       <c r="J18">
-        <v>2.2204447099110547e-14</v>
+        <v>2.2204102052306441e-14</v>
       </c>
       <c r="K18">
-        <v>2.2204447099110547e-14</v>
+        <v>2.2204102052306441e-14</v>
       </c>
       <c r="L18">
-        <v>2.2204447099110547e-14</v>
+        <v>2.2204102052306441e-14</v>
       </c>
       <c r="M18">
-        <v>2.2204447099110547e-14</v>
+        <v>2.2204102052306441e-14</v>
       </c>
       <c r="N18">
-        <v>2.2204447099110547e-14</v>
+        <v>2.2204102052306441e-14</v>
       </c>
       <c r="O18">
-        <v>2.2204447099110547e-14</v>
+        <v>2.2204102052306441e-14</v>
       </c>
       <c r="P18">
-        <v>0.99996983805025186</v>
+        <v>2.2204102052306441e-14</v>
       </c>
       <c r="Q18">
-        <v>2.2204447099110547e-14</v>
+        <v>1.2757060507244926e-12</v>
       </c>
       <c r="R18">
-        <v>2.2204447099110547e-14</v>
+        <v>2.2204102052306441e-14</v>
       </c>
       <c r="S18">
-        <v>1.5694370745897465e-13</v>
+        <v>0.00067679064215484116</v>
       </c>
       <c r="T18">
-        <v>2.2204447099110547e-14</v>
+        <v>2.2204102052306441e-14</v>
       </c>
       <c r="U18">
-        <v>2.2204447099110547e-14</v>
+        <v>2.2204102052306441e-14</v>
       </c>
       <c r="V18">
-        <v>2.2204447099110547e-14</v>
+        <v>2.2204102052306441e-14</v>
       </c>
       <c r="W18">
-        <v>2.2204447099110547e-14</v>
+        <v>2.2204102052306441e-14</v>
       </c>
       <c r="X18">
-        <v>2.2204447099110547e-14</v>
+        <v>0.99919091322358555</v>
       </c>
       <c r="Y18">
-        <v>2.2204447099110547e-14</v>
+        <v>2.2204102052306441e-14</v>
       </c>
       <c r="Z18">
-        <v>2.2204447099110547e-14</v>
+        <v>2.2204102052306441e-14</v>
       </c>
       <c r="AA18">
-        <v>2.2204447099110547e-14</v>
+        <v>2.2204102052306441e-14</v>
       </c>
       <c r="AB18">
-        <v>1.1957607805663094e-10</v>
+        <v>1.9608488677909218e-07</v>
       </c>
       <c r="AC18">
-        <v>2.2204447099110547e-14</v>
+        <v>2.2204102052306441e-14</v>
       </c>
       <c r="AD18">
-        <v>2.2204447099110547e-14</v>
+        <v>2.2204102052306441e-14</v>
       </c>
       <c r="AE18">
-        <v>2.2204447099110547e-14</v>
+        <v>2.2204102052306441e-14</v>
       </c>
       <c r="AF18">
-        <v>2.2204447099110547e-14</v>
+        <v>2.2204102052306441e-14</v>
       </c>
       <c r="AG18">
-        <v>2.2204447099110547e-14</v>
+        <v>2.281396850417534e-06</v>
       </c>
       <c r="AH18">
-        <v>2.2204447099110547e-14</v>
+        <v>2.2204102052306441e-14</v>
       </c>
       <c r="AI18">
-        <v>2.2204447099110547e-14</v>
+        <v>8.2239246309755601e-05</v>
       </c>
       <c r="AJ18">
-        <v>2.2204447099110547e-14</v>
+        <v>2.2204102052306441e-14</v>
       </c>
       <c r="AK18">
-        <v>2.2204447099110547e-14</v>
+        <v>2.2204102052306441e-14</v>
       </c>
       <c r="AL18">
-        <v>2.2204447099110547e-14</v>
+        <v>2.2204102052306441e-14</v>
       </c>
       <c r="AM18">
-        <v>2.2204447099110547e-14</v>
+        <v>2.2204102052306441e-14</v>
       </c>
       <c r="AN18">
-        <v>2.2204447099110547e-14</v>
+        <v>4.6171139448391218e-05</v>
       </c>
       <c r="AO18">
-        <v>2.2204447099110547e-14</v>
+        <v>2.2204102052306441e-14</v>
       </c>
       <c r="AP18">
-        <v>2.2204447099110547e-14</v>
+        <v>3.8109899315309507e-13</v>
       </c>
       <c r="AQ18">
-        <v>2.2204447099110547e-14</v>
+        <v>2.2204102052306441e-14</v>
       </c>
       <c r="AR18">
-        <v>2.2204447099110547e-14</v>
+        <v>2.2204102052306441e-14</v>
       </c>
       <c r="AS18">
-        <v>1.8447250617725603e-05</v>
+        <v>6.0177946092118787e-10</v>
       </c>
       <c r="AT18">
-        <v>2.2204447099110547e-14</v>
+        <v>2.2204102052306441e-14</v>
       </c>
       <c r="AU18">
-        <v>2.2204447099110547e-14</v>
+        <v>2.2204102052306441e-14</v>
       </c>
       <c r="AV18">
-        <v>2.2204447099110547e-14</v>
+        <v>2.2204102052306441e-14</v>
       </c>
       <c r="AW18">
-        <v>2.2204447099110547e-14</v>
+        <v>2.2204102052306441e-14</v>
       </c>
       <c r="AX18">
-        <v>2.2204447099110547e-14</v>
+        <v>2.2204102052306441e-14</v>
       </c>
       <c r="AY18">
-        <v>1.2595236714923765e-09</v>
+        <v>1.3593305908846578e-06</v>
       </c>
       <c r="AZ18">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="s">
-        <v>18</v>
+      <c r="A19" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="B19">
-        <v>2.2204448964863384e-14</v>
+        <v>2.9312710133412655e-09</v>
       </c>
       <c r="C19">
-        <v>2.2204448964863384e-14</v>
+        <v>2.220230058518828e-14</v>
       </c>
       <c r="D19">
-        <v>2.2204448964863384e-14</v>
+        <v>2.220230058518828e-14</v>
       </c>
       <c r="E19">
-        <v>2.2204448964863384e-14</v>
+        <v>2.220230058518828e-14</v>
       </c>
       <c r="F19">
-        <v>2.2204448964863384e-14</v>
+        <v>2.220230058518828e-14</v>
       </c>
       <c r="G19">
-        <v>2.2204448964863384e-14</v>
+        <v>2.220230058518828e-14</v>
       </c>
       <c r="H19">
-        <v>2.2204448964863384e-14</v>
+        <v>2.220230058518828e-14</v>
       </c>
       <c r="I19">
-        <v>2.2204448964863384e-14</v>
+        <v>2.220230058518828e-14</v>
       </c>
       <c r="J19">
-        <v>2.2204448964863384e-14</v>
+        <v>2.220230058518828e-14</v>
       </c>
       <c r="K19">
-        <v>2.2204448964863384e-14</v>
+        <v>2.220230058518828e-14</v>
       </c>
       <c r="L19">
-        <v>2.2204448964863384e-14</v>
+        <v>2.220230058518828e-14</v>
       </c>
       <c r="M19">
-        <v>0.99997404005512258</v>
+        <v>2.220230058518828e-14</v>
       </c>
       <c r="N19">
-        <v>2.2204448964863384e-14</v>
+        <v>2.220230058518828e-14</v>
       </c>
       <c r="O19">
-        <v>2.2204448964863384e-14</v>
+        <v>2.220230058518828e-14</v>
       </c>
       <c r="P19">
-        <v>2.2204448964863384e-14</v>
+        <v>2.220230058518828e-14</v>
       </c>
       <c r="Q19">
-        <v>2.2204448964863384e-14</v>
+        <v>2.220230058518828e-14</v>
       </c>
       <c r="R19">
-        <v>2.2204448964863384e-14</v>
+        <v>2.220230058518828e-14</v>
       </c>
       <c r="S19">
-        <v>1.3519112316630655e-09</v>
+        <v>1.1894192433299725e-06</v>
       </c>
       <c r="T19">
-        <v>2.2204448964863384e-14</v>
+        <v>2.220230058518828e-14</v>
       </c>
       <c r="U19">
-        <v>2.2204448964863384e-14</v>
+        <v>0.99277743885366454</v>
       </c>
       <c r="V19">
-        <v>2.2204448964863384e-14</v>
+        <v>2.220230058518828e-14</v>
       </c>
       <c r="W19">
-        <v>2.2204448964863384e-14</v>
+        <v>2.220230058518828e-14</v>
       </c>
       <c r="X19">
-        <v>2.2204448964863384e-14</v>
+        <v>2.220230058518828e-14</v>
       </c>
       <c r="Y19">
-        <v>2.2204448964863384e-14</v>
+        <v>2.220230058518828e-14</v>
       </c>
       <c r="Z19">
-        <v>2.2204448964863384e-14</v>
+        <v>2.220230058518828e-14</v>
       </c>
       <c r="AA19">
-        <v>2.2204448964863384e-14</v>
+        <v>2.220230058518828e-14</v>
       </c>
       <c r="AB19">
-        <v>5.921069487664758e-12</v>
+        <v>7.021684950848765e-07</v>
       </c>
       <c r="AC19">
-        <v>2.2204448964863384e-14</v>
+        <v>2.220230058518828e-14</v>
       </c>
       <c r="AD19">
-        <v>2.2204448964863384e-14</v>
+        <v>2.220230058518828e-14</v>
       </c>
       <c r="AE19">
-        <v>2.2204448964863384e-14</v>
+        <v>2.220230058518828e-14</v>
       </c>
       <c r="AF19">
-        <v>2.2204448964863384e-14</v>
+        <v>2.220230058518828e-14</v>
       </c>
       <c r="AG19">
-        <v>2.2204448964863384e-14</v>
+        <v>2.0489160115146378e-05</v>
       </c>
       <c r="AH19">
-        <v>2.2204448964863384e-14</v>
+        <v>2.220230058518828e-14</v>
       </c>
       <c r="AI19">
-        <v>2.2204448964863384e-14</v>
+        <v>1.4602498197055946e-05</v>
       </c>
       <c r="AJ19">
-        <v>2.2204448964863384e-14</v>
+        <v>2.220230058518828e-14</v>
       </c>
       <c r="AK19">
-        <v>2.2204448964863384e-14</v>
+        <v>2.220230058518828e-14</v>
       </c>
       <c r="AL19">
-        <v>2.2204448964863384e-14</v>
+        <v>2.220230058518828e-14</v>
       </c>
       <c r="AM19">
-        <v>2.2204448964863384e-14</v>
+        <v>2.220230058518828e-14</v>
       </c>
       <c r="AN19">
-        <v>4.0719237503353678e-08</v>
+        <v>0.0071842500200284595</v>
       </c>
       <c r="AO19">
-        <v>2.2204448964863384e-14</v>
+        <v>2.220230058518828e-14</v>
       </c>
       <c r="AP19">
-        <v>2.2204448964863384e-14</v>
+        <v>1.3210796665160875e-06</v>
       </c>
       <c r="AQ19">
-        <v>2.2204448964863384e-14</v>
+        <v>2.220230058518828e-14</v>
       </c>
       <c r="AR19">
-        <v>2.2204448964863384e-14</v>
+        <v>2.220230058518828e-14</v>
       </c>
       <c r="AS19">
-        <v>2.5917866808551663e-05</v>
+        <v>9.9357338914338904e-10</v>
       </c>
       <c r="AT19">
-        <v>2.2204448964863384e-14</v>
+        <v>2.220230058518828e-14</v>
       </c>
       <c r="AU19">
-        <v>2.2204448964863384e-14</v>
+        <v>2.220230058518828e-14</v>
       </c>
       <c r="AV19">
-        <v>2.2204448964863384e-14</v>
+        <v>2.220230058518828e-14</v>
       </c>
       <c r="AW19">
-        <v>2.2204448964863384e-14</v>
+        <v>2.220230058518828e-14</v>
       </c>
       <c r="AX19">
-        <v>2.2204448964863384e-14</v>
+        <v>2.220230058518828e-14</v>
       </c>
       <c r="AY19">
-        <v>2.2204448964863384e-14</v>
+        <v>2.8748573115342612e-09</v>
       </c>
       <c r="AZ19">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="s">
-        <v>19</v>
+      <c r="A20" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="B20">
-        <v>4.2377464706792487e-06</v>
+        <v>2.1052345898033508e-09</v>
       </c>
       <c r="C20">
-        <v>2.2202073825088309e-14</v>
+        <v>2.22043783273497e-14</v>
       </c>
       <c r="D20">
-        <v>0.014302227286112664</v>
+        <v>2.22043783273497e-14</v>
       </c>
       <c r="E20">
-        <v>2.2202073825088309e-14</v>
+        <v>2.22043783273497e-14</v>
       </c>
       <c r="F20">
-        <v>2.2202073825088309e-14</v>
+        <v>2.22043783273497e-14</v>
       </c>
       <c r="G20">
-        <v>2.2202073825088309e-14</v>
+        <v>2.22043783273497e-14</v>
       </c>
       <c r="H20">
-        <v>2.2202073825088309e-14</v>
+        <v>2.22043783273497e-14</v>
       </c>
       <c r="I20">
-        <v>2.2202073825088309e-14</v>
+        <v>2.22043783273497e-14</v>
       </c>
       <c r="J20">
-        <v>2.2202073825088309e-14</v>
+        <v>2.22043783273497e-14</v>
       </c>
       <c r="K20">
-        <v>2.2202073825088309e-14</v>
+        <v>2.22043783273497e-14</v>
       </c>
       <c r="L20">
-        <v>2.2202073825088309e-14</v>
+        <v>2.22043783273497e-14</v>
       </c>
       <c r="M20">
-        <v>2.2202073825088309e-14</v>
+        <v>2.22043783273497e-14</v>
       </c>
       <c r="N20">
-        <v>2.2202073825088309e-14</v>
+        <v>2.22043783273497e-14</v>
       </c>
       <c r="O20">
-        <v>2.2202073825088309e-14</v>
+        <v>2.22043783273497e-14</v>
       </c>
       <c r="P20">
-        <v>0.98569285594058154</v>
+        <v>2.22043783273497e-14</v>
       </c>
       <c r="Q20">
-        <v>2.2202073825088309e-14</v>
+        <v>2.22043783273497e-14</v>
       </c>
       <c r="R20">
-        <v>2.2202073825088309e-14</v>
+        <v>2.22043783273497e-14</v>
       </c>
       <c r="S20">
-        <v>3.2602299025524428e-13</v>
+        <v>2.1254134015640872e-07</v>
       </c>
       <c r="T20">
-        <v>2.2202073825088309e-14</v>
+        <v>2.22043783273497e-14</v>
       </c>
       <c r="U20">
-        <v>2.2202073825088309e-14</v>
+        <v>0.99981487837418881</v>
       </c>
       <c r="V20">
-        <v>2.2202073825088309e-14</v>
+        <v>2.22043783273497e-14</v>
       </c>
       <c r="W20">
-        <v>2.2202073825088309e-14</v>
+        <v>2.22043783273497e-14</v>
       </c>
       <c r="X20">
-        <v>2.2202073825088309e-14</v>
+        <v>2.22043783273497e-14</v>
       </c>
       <c r="Y20">
-        <v>2.2202073825088309e-14</v>
+        <v>2.22043783273497e-14</v>
       </c>
       <c r="Z20">
-        <v>2.2202073825088309e-14</v>
+        <v>2.22043783273497e-14</v>
       </c>
       <c r="AA20">
-        <v>2.2202073825088309e-14</v>
+        <v>2.22043783273497e-14</v>
       </c>
       <c r="AB20">
-        <v>1.2437152923980168e-10</v>
+        <v>2.2466111477523407e-06</v>
       </c>
       <c r="AC20">
-        <v>2.2202073825088309e-14</v>
+        <v>2.22043783273497e-14</v>
       </c>
       <c r="AD20">
-        <v>2.2202073825088309e-14</v>
+        <v>2.22043783273497e-14</v>
       </c>
       <c r="AE20">
-        <v>2.2202073825088309e-14</v>
+        <v>2.22043783273497e-14</v>
       </c>
       <c r="AF20">
-        <v>2.2202073825088309e-14</v>
+        <v>2.22043783273497e-14</v>
       </c>
       <c r="AG20">
-        <v>2.2202073825088309e-14</v>
+        <v>1.114138262083273e-06</v>
       </c>
       <c r="AH20">
-        <v>2.2202073825088309e-14</v>
+        <v>2.22043783273497e-14</v>
       </c>
       <c r="AI20">
-        <v>2.2202073825088309e-14</v>
+        <v>6.4005961118489796e-06</v>
       </c>
       <c r="AJ20">
-        <v>2.2202073825088309e-14</v>
+        <v>2.22043783273497e-14</v>
       </c>
       <c r="AK20">
-        <v>2.2202073825088309e-14</v>
+        <v>2.22043783273497e-14</v>
       </c>
       <c r="AL20">
-        <v>2.2202073825088309e-14</v>
+        <v>2.22043783273497e-14</v>
       </c>
       <c r="AM20">
-        <v>2.2202073825088309e-14</v>
+        <v>2.22043783273497e-14</v>
       </c>
       <c r="AN20">
-        <v>2.2202073825088309e-14</v>
+        <v>0.00017506646040134363</v>
       </c>
       <c r="AO20">
-        <v>2.2202073825088309e-14</v>
+        <v>2.22043783273497e-14</v>
       </c>
       <c r="AP20">
-        <v>2.2202073825088309e-14</v>
+        <v>5.25136890450782e-08</v>
       </c>
       <c r="AQ20">
-        <v>2.2202073825088309e-14</v>
+        <v>2.22043783273497e-14</v>
       </c>
       <c r="AR20">
-        <v>2.2202073825088309e-14</v>
+        <v>2.22043783273497e-14</v>
       </c>
       <c r="AS20">
-        <v>6.7889970524753941e-07</v>
+        <v>2.4063171002726328e-08</v>
       </c>
       <c r="AT20">
-        <v>2.2202073825088309e-14</v>
+        <v>2.22043783273497e-14</v>
       </c>
       <c r="AU20">
-        <v>2.2202073825088309e-14</v>
+        <v>2.22043783273497e-14</v>
       </c>
       <c r="AV20">
-        <v>2.2202073825088309e-14</v>
+        <v>2.22043783273497e-14</v>
       </c>
       <c r="AW20">
-        <v>2.2202073825088309e-14</v>
+        <v>2.22043783273497e-14</v>
       </c>
       <c r="AX20">
-        <v>2.2202073825088309e-14</v>
+        <v>2.22043783273497e-14</v>
       </c>
       <c r="AY20">
-        <v>1.4777505880594713e-12</v>
+        <v>2.595565212419191e-09</v>
       </c>
       <c r="AZ20">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="s">
-        <v>20</v>
+      <c r="A21" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="B21">
-        <v>1.1936170847668643e-05</v>
+        <v>7.0449147207096172e-06</v>
       </c>
       <c r="C21">
-        <v>2.2202156806221363e-14</v>
+        <v>2.2202080631651574e-14</v>
       </c>
       <c r="D21">
-        <v>2.2202156806221363e-14</v>
+        <v>2.2202080631651574e-14</v>
       </c>
       <c r="E21">
-        <v>2.2202156806221363e-14</v>
+        <v>0.014295282854741475</v>
       </c>
       <c r="F21">
-        <v>2.2202156806221363e-14</v>
+        <v>2.2202080631651574e-14</v>
       </c>
       <c r="G21">
-        <v>2.2202156806221363e-14</v>
+        <v>2.2202080631651574e-14</v>
       </c>
       <c r="H21">
-        <v>2.2202156806221363e-14</v>
+        <v>2.2202080631651574e-14</v>
       </c>
       <c r="I21">
-        <v>2.2202156806221363e-14</v>
+        <v>2.2202080631651574e-14</v>
       </c>
       <c r="J21">
-        <v>2.2202156806221363e-14</v>
+        <v>2.2202080631651574e-14</v>
       </c>
       <c r="K21">
-        <v>2.2202156806221363e-14</v>
+        <v>2.2202080631651574e-14</v>
       </c>
       <c r="L21">
-        <v>2.2202156806221363e-14</v>
+        <v>2.2202080631651574e-14</v>
       </c>
       <c r="M21">
-        <v>2.2202156806221363e-14</v>
+        <v>2.2202080631651574e-14</v>
       </c>
       <c r="N21">
-        <v>2.2202156806221363e-14</v>
+        <v>2.2202080631651574e-14</v>
       </c>
       <c r="O21">
-        <v>2.2202156806221363e-14</v>
+        <v>2.2202080631651574e-14</v>
       </c>
       <c r="P21">
-        <v>2.2202156806221363e-14</v>
+        <v>0.98568377350110581</v>
       </c>
       <c r="Q21">
-        <v>1.4388458876824385e-10</v>
+        <v>2.2202080631651574e-14</v>
       </c>
       <c r="R21">
-        <v>2.2202156806221363e-14</v>
+        <v>2.2202080631651574e-14</v>
       </c>
       <c r="S21">
-        <v>0.012622532917869784</v>
+        <v>2.2202080631651574e-14</v>
       </c>
       <c r="T21">
-        <v>2.2202156806221363e-14</v>
+        <v>2.2202080631651574e-14</v>
       </c>
       <c r="U21">
-        <v>2.2202156806221363e-14</v>
+        <v>2.2202080631651574e-14</v>
       </c>
       <c r="V21">
-        <v>2.2202156806221363e-14</v>
+        <v>2.2202080631651574e-14</v>
       </c>
       <c r="W21">
-        <v>2.2202156806221363e-14</v>
+        <v>2.2202080631651574e-14</v>
       </c>
       <c r="X21">
-        <v>0.98698748106136935</v>
+        <v>2.2202080631651574e-14</v>
       </c>
       <c r="Y21">
-        <v>2.2202156806221363e-14</v>
+        <v>2.2202080631651574e-14</v>
       </c>
       <c r="Z21">
-        <v>2.2202156806221363e-14</v>
+        <v>2.2202080631651574e-14</v>
       </c>
       <c r="AA21">
-        <v>2.2202156806221363e-14</v>
+        <v>2.2202080631651574e-14</v>
       </c>
       <c r="AB21">
-        <v>3.3526609072606133e-08</v>
+        <v>1.2159830383862439e-09</v>
       </c>
       <c r="AC21">
-        <v>2.2202156806221363e-14</v>
+        <v>2.2202080631651574e-14</v>
       </c>
       <c r="AD21">
-        <v>2.2202156806221363e-14</v>
+        <v>2.2202080631651574e-14</v>
       </c>
       <c r="AE21">
-        <v>2.2202156806221363e-14</v>
+        <v>2.2202080631651574e-14</v>
       </c>
       <c r="AF21">
-        <v>2.2202156806221363e-14</v>
+        <v>2.2202080631651574e-14</v>
       </c>
       <c r="AG21">
-        <v>2.4920355649015284e-07</v>
+        <v>2.2202080631651574e-14</v>
       </c>
       <c r="AH21">
-        <v>2.2202156806221363e-14</v>
+        <v>2.2202080631651574e-14</v>
       </c>
       <c r="AI21">
-        <v>1.0739140581745713e-06</v>
+        <v>2.2202080631651574e-14</v>
       </c>
       <c r="AJ21">
-        <v>2.2202156806221363e-14</v>
+        <v>2.2202080631651574e-14</v>
       </c>
       <c r="AK21">
-        <v>2.2202156806221363e-14</v>
+        <v>2.2202080631651574e-14</v>
       </c>
       <c r="AL21">
-        <v>2.2202156806221363e-14</v>
+        <v>2.2202080631651574e-14</v>
       </c>
       <c r="AM21">
-        <v>2.2202156806221363e-14</v>
+        <v>2.2202080631651574e-14</v>
       </c>
       <c r="AN21">
-        <v>1.7032372682609634e-06</v>
+        <v>2.2202080631651574e-14</v>
       </c>
       <c r="AO21">
-        <v>2.2202156806221363e-14</v>
+        <v>2.2202080631651574e-14</v>
       </c>
       <c r="AP21">
-        <v>2.4469958039944546e-09</v>
+        <v>2.2202080631651574e-14</v>
       </c>
       <c r="AQ21">
-        <v>2.2202156806221363e-14</v>
+        <v>2.2202080631651574e-14</v>
       </c>
       <c r="AR21">
-        <v>2.2202156806221363e-14</v>
+        <v>2.2202080631651574e-14</v>
       </c>
       <c r="AS21">
-        <v>2.9330757458158831e-10</v>
+        <v>1.3895502004786073e-05</v>
       </c>
       <c r="AT21">
-        <v>2.2202156806221363e-14</v>
+        <v>2.2202080631651574e-14</v>
       </c>
       <c r="AU21">
-        <v>2.2202156806221363e-14</v>
+        <v>2.2202080631651574e-14</v>
       </c>
       <c r="AV21">
-        <v>2.2202156806221363e-14</v>
+        <v>2.2202080631651574e-14</v>
       </c>
       <c r="AW21">
-        <v>2.2202156806221363e-14</v>
+        <v>2.2202080631651574e-14</v>
       </c>
       <c r="AX21">
-        <v>2.2202156806221363e-14</v>
+        <v>2.2202080631651574e-14</v>
       </c>
       <c r="AY21">
-        <v>0.00037498708336719733</v>
+        <v>2.0104672455493464e-09</v>
       </c>
       <c r="AZ21">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="s">
-        <v>21</v>
+      <c r="A22" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="B22">
-        <v>2.9664041633755313e-07</v>
+        <v>4.1050895041380253e-07</v>
       </c>
       <c r="C22">
-        <v>2.2201595377873139e-14</v>
+        <v>2.2205353987725505e-14</v>
       </c>
       <c r="D22">
-        <v>2.2201595377873139e-14</v>
+        <v>2.2205353987725505e-14</v>
       </c>
       <c r="E22">
-        <v>2.2201595377873139e-14</v>
+        <v>2.2205353987725505e-14</v>
       </c>
       <c r="F22">
-        <v>2.2201595377873139e-14</v>
+        <v>2.2205353987725505e-14</v>
       </c>
       <c r="G22">
-        <v>2.2201595377873139e-14</v>
+        <v>2.2205353987725505e-14</v>
       </c>
       <c r="H22">
-        <v>2.2201595377873139e-14</v>
+        <v>2.2205353987725505e-14</v>
       </c>
       <c r="I22">
-        <v>2.2201595377873139e-14</v>
+        <v>2.2205353987725505e-14</v>
       </c>
       <c r="J22">
-        <v>2.2201595377873139e-14</v>
+        <v>2.2205353987725505e-14</v>
       </c>
       <c r="K22">
-        <v>2.2201595377873139e-14</v>
+        <v>2.2205353987725505e-14</v>
       </c>
       <c r="L22">
-        <v>2.2201595377873139e-14</v>
+        <v>2.2205353987725505e-14</v>
       </c>
       <c r="M22">
-        <v>2.2201595377873139e-14</v>
+        <v>2.2205353987725505e-14</v>
       </c>
       <c r="N22">
-        <v>2.2201595377873139e-14</v>
+        <v>2.2205353987725505e-14</v>
       </c>
       <c r="O22">
-        <v>2.2201595377873139e-14</v>
+        <v>0.011483829354048234</v>
       </c>
       <c r="P22">
-        <v>2.2201595377873139e-14</v>
+        <v>2.2205353987725505e-14</v>
       </c>
       <c r="Q22">
-        <v>1.5483574221178671e-08</v>
+        <v>2.2205353987725505e-14</v>
       </c>
       <c r="R22">
-        <v>2.2201595377873139e-14</v>
+        <v>2.2205353987725505e-14</v>
       </c>
       <c r="S22">
-        <v>0.0001324649798853214</v>
+        <v>0.96063215169410632</v>
       </c>
       <c r="T22">
-        <v>2.2201595377873139e-14</v>
+        <v>2.2205353987725505e-14</v>
       </c>
       <c r="U22">
-        <v>0.94587357606824962</v>
+        <v>2.2205353987725505e-14</v>
       </c>
       <c r="V22">
-        <v>2.2201595377873139e-14</v>
+        <v>2.2205353987725505e-14</v>
       </c>
       <c r="W22">
-        <v>2.2201595377873139e-14</v>
+        <v>2.2205353987725505e-14</v>
       </c>
       <c r="X22">
-        <v>2.2201595377873139e-14</v>
+        <v>2.2205353987725505e-14</v>
       </c>
       <c r="Y22">
-        <v>2.2201595377873139e-14</v>
+        <v>2.2205353987725505e-14</v>
       </c>
       <c r="Z22">
-        <v>2.2201595377873139e-14</v>
+        <v>2.2205353987725505e-14</v>
       </c>
       <c r="AA22">
-        <v>2.2201595377873139e-14</v>
+        <v>2.2205353987725505e-14</v>
       </c>
       <c r="AB22">
-        <v>1.5809507367340695e-08</v>
+        <v>9.3261665230071689e-09</v>
       </c>
       <c r="AC22">
-        <v>2.2201595377873139e-14</v>
+        <v>2.2205353987725505e-14</v>
       </c>
       <c r="AD22">
-        <v>2.2201595377873139e-14</v>
+        <v>2.2205353987725505e-14</v>
       </c>
       <c r="AE22">
-        <v>2.2201595377873139e-14</v>
+        <v>2.2205353987725505e-14</v>
       </c>
       <c r="AF22">
-        <v>2.2201595377873139e-14</v>
+        <v>2.2205353987725505e-14</v>
       </c>
       <c r="AG22">
-        <v>0.05314100611046009</v>
+        <v>8.9356473513531636e-07</v>
       </c>
       <c r="AH22">
-        <v>2.2201595377873139e-14</v>
+        <v>2.2205353987725505e-14</v>
       </c>
       <c r="AI22">
-        <v>3.2469676174455179e-08</v>
+        <v>0.016460804825702065</v>
       </c>
       <c r="AJ22">
-        <v>2.2201595377873139e-14</v>
+        <v>2.2205353987725505e-14</v>
       </c>
       <c r="AK22">
-        <v>2.2201595377873139e-14</v>
+        <v>2.2205353987725505e-14</v>
       </c>
       <c r="AL22">
-        <v>2.2201595377873139e-14</v>
+        <v>2.2205353987725505e-14</v>
       </c>
       <c r="AM22">
-        <v>2.2201595377873139e-14</v>
+        <v>2.2205353987725505e-14</v>
       </c>
       <c r="AN22">
-        <v>0.00078437887638753087</v>
+        <v>0.011421663843703085</v>
       </c>
       <c r="AO22">
-        <v>2.2201595377873139e-14</v>
+        <v>2.2205353987725505e-14</v>
       </c>
       <c r="AP22">
-        <v>6.7955337908287569e-05</v>
+        <v>2.2205353987725505e-14</v>
       </c>
       <c r="AQ22">
-        <v>2.2201595377873139e-14</v>
+        <v>2.2205353987725505e-14</v>
       </c>
       <c r="AR22">
-        <v>2.2201595377873139e-14</v>
+        <v>2.2205353987725505e-14</v>
       </c>
       <c r="AS22">
-        <v>4.805042721282663e-11</v>
+        <v>6.0978441914699401e-11</v>
       </c>
       <c r="AT22">
-        <v>2.2201595377873139e-14</v>
+        <v>2.2205353987725505e-14</v>
       </c>
       <c r="AU22">
-        <v>2.2201595377873139e-14</v>
+        <v>2.2205353987725505e-14</v>
       </c>
       <c r="AV22">
-        <v>2.2201595377873139e-14</v>
+        <v>2.2205353987725505e-14</v>
       </c>
       <c r="AW22">
-        <v>2.2201595377873139e-14</v>
+        <v>2.2205353987725505e-14</v>
       </c>
       <c r="AX22">
-        <v>2.2201595377873139e-14</v>
+        <v>2.2205353987725505e-14</v>
       </c>
       <c r="AY22">
-        <v>2.5817501873916196e-07</v>
+        <v>2.3682069927594432e-07</v>
       </c>
       <c r="AZ22">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="s">
-        <v>22</v>
+      <c r="A23" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="B23">
-        <v>5.3708397041718938e-08</v>
+        <v>5.7199582929236403e-09</v>
       </c>
       <c r="C23">
-        <v>2.2204458179186705e-14</v>
+        <v>2.220426449450586e-14</v>
       </c>
       <c r="D23">
-        <v>2.2204458179186705e-14</v>
+        <v>2.220426449450586e-14</v>
       </c>
       <c r="E23">
-        <v>2.2204458179186705e-14</v>
+        <v>2.220426449450586e-14</v>
       </c>
       <c r="F23">
-        <v>2.2204458179186705e-14</v>
+        <v>2.220426449450586e-14</v>
       </c>
       <c r="G23">
-        <v>2.2204458179186705e-14</v>
+        <v>2.220426449450586e-14</v>
       </c>
       <c r="H23">
-        <v>2.2204458179186705e-14</v>
+        <v>2.220426449450586e-14</v>
       </c>
       <c r="I23">
-        <v>2.2204458179186705e-14</v>
+        <v>2.220426449450586e-14</v>
       </c>
       <c r="J23">
-        <v>2.2204458179186705e-14</v>
+        <v>2.220426449450586e-14</v>
       </c>
       <c r="K23">
-        <v>2.2204458179186705e-14</v>
+        <v>2.220426449450586e-14</v>
       </c>
       <c r="L23">
-        <v>2.2204458179186705e-14</v>
+        <v>2.220426449450586e-14</v>
       </c>
       <c r="M23">
-        <v>2.2204458179186705e-14</v>
+        <v>2.220426449450586e-14</v>
       </c>
       <c r="N23">
-        <v>2.2204458179186705e-14</v>
+        <v>2.220426449450586e-14</v>
       </c>
       <c r="O23">
-        <v>2.2204458179186705e-14</v>
+        <v>2.220426449450586e-14</v>
       </c>
       <c r="P23">
-        <v>2.2204458179186705e-14</v>
+        <v>2.220426449450586e-14</v>
       </c>
       <c r="Q23">
-        <v>2.2204458179186705e-14</v>
+        <v>2.220426449450586e-14</v>
       </c>
       <c r="R23">
-        <v>2.2204458179186705e-14</v>
+        <v>2.220426449450586e-14</v>
       </c>
       <c r="S23">
-        <v>5.2671792669970315e-09</v>
+        <v>0.00018791890599337925</v>
       </c>
       <c r="T23">
-        <v>2.2204458179186705e-14</v>
+        <v>2.220426449450586e-14</v>
       </c>
       <c r="U23">
-        <v>0.99999479079446041</v>
+        <v>2.220426449450586e-14</v>
       </c>
       <c r="V23">
-        <v>2.2204458179186705e-14</v>
+        <v>2.220426449450586e-14</v>
       </c>
       <c r="W23">
-        <v>2.2204458179186705e-14</v>
+        <v>2.220426449450586e-14</v>
       </c>
       <c r="X23">
-        <v>2.2204458179186705e-14</v>
+        <v>2.220426449450586e-14</v>
       </c>
       <c r="Y23">
-        <v>2.2204458179186705e-14</v>
+        <v>0.99955806954394644</v>
       </c>
       <c r="Z23">
-        <v>2.2204458179186705e-14</v>
+        <v>2.220426449450586e-14</v>
       </c>
       <c r="AA23">
-        <v>2.2204458179186705e-14</v>
+        <v>2.220426449450586e-14</v>
       </c>
       <c r="AB23">
-        <v>2.2538080355957284e-06</v>
+        <v>3.0910988265730136e-05</v>
       </c>
       <c r="AC23">
-        <v>2.2204458179186705e-14</v>
+        <v>2.220426449450586e-14</v>
       </c>
       <c r="AD23">
-        <v>2.2204458179186705e-14</v>
+        <v>2.220426449450586e-14</v>
       </c>
       <c r="AE23">
-        <v>2.2204458179186705e-14</v>
+        <v>2.220426449450586e-14</v>
       </c>
       <c r="AF23">
-        <v>2.2204458179186705e-14</v>
+        <v>2.220426449450586e-14</v>
       </c>
       <c r="AG23">
-        <v>4.7246605740044413e-07</v>
+        <v>2.220426449450586e-14</v>
       </c>
       <c r="AH23">
-        <v>2.2204458179186705e-14</v>
+        <v>2.220426449450586e-14</v>
       </c>
       <c r="AI23">
-        <v>8.6490987318823041e-07</v>
+        <v>1.2391867666464378e-05</v>
       </c>
       <c r="AJ23">
-        <v>2.2204458179186705e-14</v>
+        <v>2.220426449450586e-14</v>
       </c>
       <c r="AK23">
-        <v>2.2204458179186705e-14</v>
+        <v>2.220426449450586e-14</v>
       </c>
       <c r="AL23">
-        <v>2.2204458179186705e-14</v>
+        <v>2.220426449450586e-14</v>
       </c>
       <c r="AM23">
-        <v>2.2204458179186705e-14</v>
+        <v>2.220426449450586e-14</v>
       </c>
       <c r="AN23">
-        <v>3.4557568317785808e-07</v>
+        <v>0.00020360983833881319</v>
       </c>
       <c r="AO23">
-        <v>2.2204458179186705e-14</v>
+        <v>2.220426449450586e-14</v>
       </c>
       <c r="AP23">
-        <v>1.0346911150781048e-06</v>
+        <v>2.220426449450586e-14</v>
       </c>
       <c r="AQ23">
-        <v>2.2204458179186705e-14</v>
+        <v>2.220426449450586e-14</v>
       </c>
       <c r="AR23">
-        <v>2.2204458179186705e-14</v>
+        <v>2.220426449450586e-14</v>
       </c>
       <c r="AS23">
-        <v>1.7637532803486701e-07</v>
+        <v>1.8264521638502685e-08</v>
       </c>
       <c r="AT23">
-        <v>2.2204458179186705e-14</v>
+        <v>2.220426449450586e-14</v>
       </c>
       <c r="AU23">
-        <v>2.2204458179186705e-14</v>
+        <v>2.220426449450586e-14</v>
       </c>
       <c r="AV23">
-        <v>2.2204458179186705e-14</v>
+        <v>2.220426449450586e-14</v>
       </c>
       <c r="AW23">
-        <v>2.2204458179186705e-14</v>
+        <v>2.220426449450586e-14</v>
       </c>
       <c r="AX23">
-        <v>2.2204458179186705e-14</v>
+        <v>2.220426449450586e-14</v>
       </c>
       <c r="AY23">
-        <v>2.4029826786989498e-09</v>
+        <v>7.0748703766790722e-06</v>
       </c>
       <c r="AZ23">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="s">
-        <v>23</v>
+      <c r="A24" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="B24">
-        <v>1.0493159853596788e-05</v>
+        <v>2.901997584749874e-07</v>
       </c>
       <c r="C24">
-        <v>2.220445576870795e-14</v>
+        <v>2.2204959686129427e-14</v>
       </c>
       <c r="D24">
-        <v>2.220445576870795e-14</v>
+        <v>2.2204959686129427e-14</v>
       </c>
       <c r="E24">
-        <v>2.220445576870795e-14</v>
+        <v>2.2204959686129427e-14</v>
       </c>
       <c r="F24">
-        <v>2.220445576870795e-14</v>
+        <v>2.2204959686129427e-14</v>
       </c>
       <c r="G24">
-        <v>2.220445576870795e-14</v>
+        <v>2.2204959686129427e-14</v>
       </c>
       <c r="H24">
-        <v>2.220445576870795e-14</v>
+        <v>2.2204959686129427e-14</v>
       </c>
       <c r="I24">
-        <v>2.220445576870795e-14</v>
+        <v>2.2204959686129427e-14</v>
       </c>
       <c r="J24">
-        <v>2.220445576870795e-14</v>
+        <v>2.2204959686129427e-14</v>
       </c>
       <c r="K24">
-        <v>2.220445576870795e-14</v>
+        <v>2.2204959686129427e-14</v>
       </c>
       <c r="L24">
-        <v>2.220445576870795e-14</v>
+        <v>2.2204959686129427e-14</v>
       </c>
       <c r="M24">
-        <v>2.220445576870795e-14</v>
+        <v>2.2204959686129427e-14</v>
       </c>
       <c r="N24">
-        <v>2.220445576870795e-14</v>
+        <v>2.2204959686129427e-14</v>
       </c>
       <c r="O24">
-        <v>2.220445576870795e-14</v>
+        <v>0.012166585180674011</v>
       </c>
       <c r="P24">
-        <v>0.99998936262253735</v>
+        <v>2.2204959686129427e-14</v>
       </c>
       <c r="Q24">
-        <v>2.220445576870795e-14</v>
+        <v>2.2204959686129427e-14</v>
       </c>
       <c r="R24">
-        <v>2.220445576870795e-14</v>
+        <v>2.2204959686129427e-14</v>
       </c>
       <c r="S24">
-        <v>6.7034579491687782e-12</v>
+        <v>0.96541447873246722</v>
       </c>
       <c r="T24">
-        <v>2.220445576870795e-14</v>
+        <v>2.2204959686129427e-14</v>
       </c>
       <c r="U24">
-        <v>2.220445576870795e-14</v>
+        <v>2.2204959686129427e-14</v>
       </c>
       <c r="V24">
-        <v>2.220445576870795e-14</v>
+        <v>2.2204959686129427e-14</v>
       </c>
       <c r="W24">
-        <v>2.220445576870795e-14</v>
+        <v>2.2204959686129427e-14</v>
       </c>
       <c r="X24">
-        <v>2.220445576870795e-14</v>
+        <v>2.2204959686129427e-14</v>
       </c>
       <c r="Y24">
-        <v>2.220445576870795e-14</v>
+        <v>2.2204959686129427e-14</v>
       </c>
       <c r="Z24">
-        <v>2.220445576870795e-14</v>
+        <v>2.2204959686129427e-14</v>
       </c>
       <c r="AA24">
-        <v>2.220445576870795e-14</v>
+        <v>2.2204959686129427e-14</v>
       </c>
       <c r="AB24">
-        <v>4.9451037408737382e-08</v>
+        <v>9.9497999722091672e-09</v>
       </c>
       <c r="AC24">
-        <v>2.220445576870795e-14</v>
+        <v>2.2204959686129427e-14</v>
       </c>
       <c r="AD24">
-        <v>2.220445576870795e-14</v>
+        <v>2.2204959686129427e-14</v>
       </c>
       <c r="AE24">
-        <v>2.220445576870795e-14</v>
+        <v>2.2204959686129427e-14</v>
       </c>
       <c r="AF24">
-        <v>2.220445576870795e-14</v>
+        <v>2.2204959686129427e-14</v>
       </c>
       <c r="AG24">
-        <v>2.220445576870795e-14</v>
+        <v>8.1475770233321768e-07</v>
       </c>
       <c r="AH24">
-        <v>2.220445576870795e-14</v>
+        <v>2.2204959686129427e-14</v>
       </c>
       <c r="AI24">
-        <v>2.220445576870795e-14</v>
+        <v>0.010146265930276422</v>
       </c>
       <c r="AJ24">
-        <v>2.220445576870795e-14</v>
+        <v>2.2204959686129427e-14</v>
       </c>
       <c r="AK24">
-        <v>2.220445576870795e-14</v>
+        <v>2.2204959686129427e-14</v>
       </c>
       <c r="AL24">
-        <v>2.220445576870795e-14</v>
+        <v>2.2204959686129427e-14</v>
       </c>
       <c r="AM24">
-        <v>2.220445576870795e-14</v>
+        <v>2.2204959686129427e-14</v>
       </c>
       <c r="AN24">
-        <v>4.8892477699381602e-12</v>
+        <v>0.012271358101104322</v>
       </c>
       <c r="AO24">
-        <v>2.220445576870795e-14</v>
+        <v>2.2204959686129427e-14</v>
       </c>
       <c r="AP24">
-        <v>6.701165019371322e-11</v>
+        <v>2.2204959686129427e-14</v>
       </c>
       <c r="AQ24">
-        <v>2.220445576870795e-14</v>
+        <v>2.2204959686129427e-14</v>
       </c>
       <c r="AR24">
-        <v>2.220445576870795e-14</v>
+        <v>2.2204959686129427e-14</v>
       </c>
       <c r="AS24">
-        <v>9.456795011078387e-08</v>
+        <v>6.8347373805911813e-11</v>
       </c>
       <c r="AT24">
-        <v>2.220445576870795e-14</v>
+        <v>2.2204959686129427e-14</v>
       </c>
       <c r="AU24">
-        <v>2.220445576870795e-14</v>
+        <v>2.2204959686129427e-14</v>
       </c>
       <c r="AV24">
-        <v>2.220445576870795e-14</v>
+        <v>2.2204959686129427e-14</v>
       </c>
       <c r="AW24">
-        <v>2.220445576870795e-14</v>
+        <v>2.2204959686129427e-14</v>
       </c>
       <c r="AX24">
-        <v>2.220445576870795e-14</v>
+        <v>2.2204959686129427e-14</v>
       </c>
       <c r="AY24">
-        <v>1.1908445371453699e-10</v>
+        <v>1.9707895951823082e-07</v>
       </c>
       <c r="AZ24">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="s">
-        <v>24</v>
+      <c r="A25" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B25">
-        <v>1.5982797442376628e-05</v>
+        <v>2.6986184054033177e-09</v>
       </c>
       <c r="C25">
-        <v>2.2203970384819843e-14</v>
+        <v>2.2203779107406382e-14</v>
       </c>
       <c r="D25">
-        <v>2.2203970384819843e-14</v>
+        <v>2.2203779107406382e-14</v>
       </c>
       <c r="E25">
-        <v>2.2203970384819843e-14</v>
+        <v>2.2203779107406382e-14</v>
       </c>
       <c r="F25">
-        <v>2.2203970384819843e-14</v>
+        <v>2.2203779107406382e-14</v>
       </c>
       <c r="G25">
-        <v>2.2203970384819843e-14</v>
+        <v>2.2203779107406382e-14</v>
       </c>
       <c r="H25">
-        <v>2.2203970384819843e-14</v>
+        <v>2.2203779107406382e-14</v>
       </c>
       <c r="I25">
-        <v>2.2203970384819843e-14</v>
+        <v>2.2203779107406382e-14</v>
       </c>
       <c r="J25">
-        <v>2.2203970384819843e-14</v>
+        <v>2.2203779107406382e-14</v>
       </c>
       <c r="K25">
-        <v>2.2203970384819843e-14</v>
+        <v>2.2203779107406382e-14</v>
       </c>
       <c r="L25">
-        <v>2.2203970384819843e-14</v>
+        <v>2.2203779107406382e-14</v>
       </c>
       <c r="M25">
-        <v>2.2203970384819843e-14</v>
+        <v>2.2203779107406382e-14</v>
       </c>
       <c r="N25">
-        <v>2.2203970384819843e-14</v>
+        <v>2.2203779107406382e-14</v>
       </c>
       <c r="O25">
-        <v>2.2203970384819843e-14</v>
+        <v>2.2203779107406382e-14</v>
       </c>
       <c r="P25">
-        <v>2.2203970384819843e-14</v>
+        <v>2.2203779107406382e-14</v>
       </c>
       <c r="Q25">
-        <v>4.1044115050071406e-11</v>
+        <v>2.2203779107406382e-14</v>
       </c>
       <c r="R25">
-        <v>2.2203970384819843e-14</v>
+        <v>2.2203779107406382e-14</v>
       </c>
       <c r="S25">
-        <v>0.99872265220328205</v>
+        <v>6.8874268139032845e-07</v>
       </c>
       <c r="T25">
-        <v>2.2203970384819843e-14</v>
+        <v>2.2203779107406382e-14</v>
       </c>
       <c r="U25">
-        <v>2.2203970384819843e-14</v>
+        <v>0.99845857750452893</v>
       </c>
       <c r="V25">
-        <v>2.2203970384819843e-14</v>
+        <v>2.2203779107406382e-14</v>
       </c>
       <c r="W25">
-        <v>2.2203970384819843e-14</v>
+        <v>2.2203779107406382e-14</v>
       </c>
       <c r="X25">
-        <v>2.2203970384819843e-14</v>
+        <v>2.2203779107406382e-14</v>
       </c>
       <c r="Y25">
-        <v>2.2203970384819843e-14</v>
+        <v>2.2203779107406382e-14</v>
       </c>
       <c r="Z25">
-        <v>2.2203970384819843e-14</v>
+        <v>2.2203779107406382e-14</v>
       </c>
       <c r="AA25">
-        <v>2.2203970384819843e-14</v>
+        <v>2.2203779107406382e-14</v>
       </c>
       <c r="AB25">
-        <v>4.1150573221388778e-08</v>
+        <v>1.3915962215884248e-06</v>
       </c>
       <c r="AC25">
-        <v>2.2203970384819843e-14</v>
+        <v>2.2203779107406382e-14</v>
       </c>
       <c r="AD25">
-        <v>2.2203970384819843e-14</v>
+        <v>2.2203779107406382e-14</v>
       </c>
       <c r="AE25">
-        <v>2.2203970384819843e-14</v>
+        <v>2.2203779107406382e-14</v>
       </c>
       <c r="AF25">
-        <v>2.2203970384819843e-14</v>
+        <v>2.2203779107406382e-14</v>
       </c>
       <c r="AG25">
-        <v>3.1313638893081055e-05</v>
+        <v>7.0587274652171249e-06</v>
       </c>
       <c r="AH25">
-        <v>2.2203970384819843e-14</v>
+        <v>2.2203779107406382e-14</v>
       </c>
       <c r="AI25">
-        <v>0.00077877155502494477</v>
+        <v>1.0280770072007422e-05</v>
       </c>
       <c r="AJ25">
-        <v>2.2203970384819843e-14</v>
+        <v>2.2203779107406382e-14</v>
       </c>
       <c r="AK25">
-        <v>2.2203970384819843e-14</v>
+        <v>2.2203779107406382e-14</v>
       </c>
       <c r="AL25">
-        <v>2.2203970384819843e-14</v>
+        <v>2.2203779107406382e-14</v>
       </c>
       <c r="AM25">
-        <v>2.2203970384819843e-14</v>
+        <v>2.2203779107406382e-14</v>
       </c>
       <c r="AN25">
-        <v>0.0003869567008833501</v>
+        <v>0.0015216794688234928</v>
       </c>
       <c r="AO25">
-        <v>2.2203970384819843e-14</v>
+        <v>2.2203779107406382e-14</v>
       </c>
       <c r="AP25">
-        <v>1.0628961238391612e-10</v>
+        <v>3.1192559661599992e-07</v>
       </c>
       <c r="AQ25">
-        <v>2.2203970384819843e-14</v>
+        <v>2.2203779107406382e-14</v>
       </c>
       <c r="AR25">
-        <v>2.2203970384819843e-14</v>
+        <v>2.2203779107406382e-14</v>
       </c>
       <c r="AS25">
-        <v>4.3287409238185944e-10</v>
+        <v>3.5690379708522952e-09</v>
       </c>
       <c r="AT25">
-        <v>2.2203970384819843e-14</v>
+        <v>2.2203779107406382e-14</v>
       </c>
       <c r="AU25">
-        <v>2.2203970384819843e-14</v>
+        <v>2.2203779107406382e-14</v>
       </c>
       <c r="AV25">
-        <v>2.2203970384819843e-14</v>
+        <v>2.2203779107406382e-14</v>
       </c>
       <c r="AW25">
-        <v>2.2203970384819843e-14</v>
+        <v>2.2203779107406382e-14</v>
       </c>
       <c r="AX25">
-        <v>2.2203970384819843e-14</v>
+        <v>2.2203779107406382e-14</v>
       </c>
       <c r="AY25">
-        <v>6.4281372804901468e-05</v>
+        <v>4.9960660837374373e-09</v>
       </c>
       <c r="AZ25">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="s">
-        <v>25</v>
+      <c r="A26" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="B26">
-        <v>2.7454275896760424e-07</v>
+        <v>1.3489370843673263e-05</v>
       </c>
       <c r="C26">
-        <v>2.2204324661366251e-14</v>
+        <v>2.2204447984720477e-14</v>
       </c>
       <c r="D26">
-        <v>2.2204324661366251e-14</v>
+        <v>2.2204447984720477e-14</v>
       </c>
       <c r="E26">
-        <v>2.2204324661366251e-14</v>
+        <v>2.2204447984720477e-14</v>
       </c>
       <c r="F26">
-        <v>2.2204324661366251e-14</v>
+        <v>2.2204447984720477e-14</v>
       </c>
       <c r="G26">
-        <v>2.2204324661366251e-14</v>
+        <v>2.2204447984720477e-14</v>
       </c>
       <c r="H26">
-        <v>2.2204324661366251e-14</v>
+        <v>2.2204447984720477e-14</v>
       </c>
       <c r="I26">
-        <v>2.2204324661366251e-14</v>
+        <v>2.2204447984720477e-14</v>
       </c>
       <c r="J26">
-        <v>2.2204324661366251e-14</v>
+        <v>2.2204447984720477e-14</v>
       </c>
       <c r="K26">
-        <v>2.2204324661366251e-14</v>
+        <v>2.2204447984720477e-14</v>
       </c>
       <c r="L26">
-        <v>2.2204324661366251e-14</v>
+        <v>2.2204447984720477e-14</v>
       </c>
       <c r="M26">
-        <v>2.2204324661366251e-14</v>
+        <v>2.2204447984720477e-14</v>
       </c>
       <c r="N26">
-        <v>2.2204324661366251e-14</v>
+        <v>2.2204447984720477e-14</v>
       </c>
       <c r="O26">
-        <v>2.2204324661366251e-14</v>
+        <v>2.2204447984720477e-14</v>
       </c>
       <c r="P26">
-        <v>2.2204324661366251e-14</v>
+        <v>0.99997183261334055</v>
       </c>
       <c r="Q26">
-        <v>2.2204324661366251e-14</v>
+        <v>2.2204447984720477e-14</v>
       </c>
       <c r="R26">
-        <v>2.2204324661366251e-14</v>
+        <v>2.2204447984720477e-14</v>
       </c>
       <c r="S26">
-        <v>0.0001492987535081977</v>
+        <v>2.2204447984720477e-14</v>
       </c>
       <c r="T26">
-        <v>2.2204324661366251e-14</v>
+        <v>2.2204447984720477e-14</v>
       </c>
       <c r="U26">
-        <v>2.2204324661366251e-14</v>
+        <v>2.2204447984720477e-14</v>
       </c>
       <c r="V26">
-        <v>2.2204324661366251e-14</v>
+        <v>2.2204447984720477e-14</v>
       </c>
       <c r="W26">
-        <v>2.2204324661366251e-14</v>
+        <v>2.2204447984720477e-14</v>
       </c>
       <c r="X26">
-        <v>2.2204324661366251e-14</v>
+        <v>2.2204447984720477e-14</v>
       </c>
       <c r="Y26">
-        <v>0.99969385608655248</v>
+        <v>2.2204447984720477e-14</v>
       </c>
       <c r="Z26">
-        <v>2.2204324661366251e-14</v>
+        <v>2.2204447984720477e-14</v>
       </c>
       <c r="AA26">
-        <v>2.2204324661366251e-14</v>
+        <v>2.2204447984720477e-14</v>
       </c>
       <c r="AB26">
-        <v>1.0001980152563584e-05</v>
+        <v>3.1175445407532447e-09</v>
       </c>
       <c r="AC26">
-        <v>2.2204324661366251e-14</v>
+        <v>2.2204447984720477e-14</v>
       </c>
       <c r="AD26">
-        <v>2.2204324661366251e-14</v>
+        <v>2.2204447984720477e-14</v>
       </c>
       <c r="AE26">
-        <v>2.2204324661366251e-14</v>
+        <v>2.2204447984720477e-14</v>
       </c>
       <c r="AF26">
-        <v>2.2204324661366251e-14</v>
+        <v>2.2204447984720477e-14</v>
       </c>
       <c r="AG26">
-        <v>2.2204324661366251e-14</v>
+        <v>2.2204447984720477e-14</v>
       </c>
       <c r="AH26">
-        <v>2.2204324661366251e-14</v>
+        <v>2.2204447984720477e-14</v>
       </c>
       <c r="AI26">
-        <v>3.249216433216087e-06</v>
+        <v>2.2204447984720477e-14</v>
       </c>
       <c r="AJ26">
-        <v>2.2204324661366251e-14</v>
+        <v>2.2204447984720477e-14</v>
       </c>
       <c r="AK26">
-        <v>2.2204324661366251e-14</v>
+        <v>2.2204447984720477e-14</v>
       </c>
       <c r="AL26">
-        <v>2.2204324661366251e-14</v>
+        <v>2.2204447984720477e-14</v>
       </c>
       <c r="AM26">
-        <v>2.2204324661366251e-14</v>
+        <v>2.2204447984720477e-14</v>
       </c>
       <c r="AN26">
-        <v>1.6761847298501391e-06</v>
+        <v>2.2204447984720477e-14</v>
       </c>
       <c r="AO26">
-        <v>2.2204324661366251e-14</v>
+        <v>2.2204447984720477e-14</v>
       </c>
       <c r="AP26">
-        <v>2.2204324661366251e-14</v>
+        <v>2.2204447984720477e-14</v>
       </c>
       <c r="AQ26">
-        <v>2.2204324661366251e-14</v>
+        <v>2.2204447984720477e-14</v>
       </c>
       <c r="AR26">
-        <v>2.2204324661366251e-14</v>
+        <v>2.2204447984720477e-14</v>
       </c>
       <c r="AS26">
-        <v>1.6004763604646466e-08</v>
+        <v>1.4669175844618646e-05</v>
       </c>
       <c r="AT26">
-        <v>2.2204324661366251e-14</v>
+        <v>2.2204447984720477e-14</v>
       </c>
       <c r="AU26">
-        <v>2.2204324661366251e-14</v>
+        <v>2.2204447984720477e-14</v>
       </c>
       <c r="AV26">
-        <v>2.2204324661366251e-14</v>
+        <v>2.2204447984720477e-14</v>
       </c>
       <c r="AW26">
-        <v>2.2204324661366251e-14</v>
+        <v>2.2204447984720477e-14</v>
       </c>
       <c r="AX26">
-        <v>2.2204324661366251e-14</v>
+        <v>2.2204447984720477e-14</v>
       </c>
       <c r="AY26">
-        <v>0.0001416272301685792</v>
+        <v>5.7214274355500896e-09</v>
       </c>
       <c r="AZ26">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="s">
-        <v>26</v>
+      <c r="A27" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="B27">
-        <v>0.00032221224933285612</v>
+        <v>2.2437885003020124e-08</v>
       </c>
       <c r="C27">
-        <v>2.2223331714871238e-14</v>
+        <v>2.2203660751411416e-14</v>
       </c>
       <c r="D27">
-        <v>2.2223331714871238e-14</v>
+        <v>2.2203660751411416e-14</v>
       </c>
       <c r="E27">
-        <v>2.2223331714871238e-14</v>
+        <v>2.2203660751411416e-14</v>
       </c>
       <c r="F27">
-        <v>2.2223331714871238e-14</v>
+        <v>2.2203660751411416e-14</v>
       </c>
       <c r="G27">
-        <v>2.2223331714871238e-14</v>
+        <v>2.2203660751411416e-14</v>
       </c>
       <c r="H27">
-        <v>2.2223331714871238e-14</v>
+        <v>2.2203660751411416e-14</v>
       </c>
       <c r="I27">
-        <v>2.2223331714871238e-14</v>
+        <v>2.2203660751411416e-14</v>
       </c>
       <c r="J27">
-        <v>2.2223331714871238e-14</v>
+        <v>2.2203660751411416e-14</v>
       </c>
       <c r="K27">
-        <v>2.2223331714871238e-14</v>
+        <v>2.2203660751411416e-14</v>
       </c>
       <c r="L27">
-        <v>2.2223331714871238e-14</v>
+        <v>2.2203660751411416e-14</v>
       </c>
       <c r="M27">
-        <v>2.2223331714871238e-14</v>
+        <v>2.2203660751411416e-14</v>
       </c>
       <c r="N27">
-        <v>2.2223331714871238e-14</v>
+        <v>2.2203660751411416e-14</v>
       </c>
       <c r="O27">
-        <v>2.2223331714871238e-14</v>
+        <v>2.2203660751411416e-14</v>
       </c>
       <c r="P27">
-        <v>2.2223331714871238e-14</v>
+        <v>2.2203660751411416e-14</v>
       </c>
       <c r="Q27">
-        <v>9.1189855265929353e-13</v>
+        <v>2.2203660751411416e-14</v>
       </c>
       <c r="R27">
-        <v>2.2223331714871238e-14</v>
+        <v>2.2203660751411416e-14</v>
       </c>
       <c r="S27">
-        <v>0.99566973932094549</v>
+        <v>3.6548392914471052e-11</v>
       </c>
       <c r="T27">
-        <v>2.2223331714871238e-14</v>
+        <v>2.2203660751411416e-14</v>
       </c>
       <c r="U27">
-        <v>2.2223331714871238e-14</v>
+        <v>2.2203660751411416e-14</v>
       </c>
       <c r="V27">
-        <v>2.2223331714871238e-14</v>
+        <v>2.2203660751411416e-14</v>
       </c>
       <c r="W27">
-        <v>2.2223331714871238e-14</v>
+        <v>2.2203660751411416e-14</v>
       </c>
       <c r="X27">
-        <v>2.2223331714871238e-14</v>
+        <v>2.2203660751411416e-14</v>
       </c>
       <c r="Y27">
-        <v>2.2223331714871238e-14</v>
+        <v>2.2203660751411416e-14</v>
       </c>
       <c r="Z27">
-        <v>2.2223331714871238e-14</v>
+        <v>0.99818937092181459</v>
       </c>
       <c r="AA27">
-        <v>2.2223331714871238e-14</v>
+        <v>2.2203660751411416e-14</v>
       </c>
       <c r="AB27">
-        <v>4.0063682820957529e-09</v>
+        <v>1.7781882253734807e-07</v>
       </c>
       <c r="AC27">
-        <v>2.2223331714871238e-14</v>
+        <v>2.2203660751411416e-14</v>
       </c>
       <c r="AD27">
-        <v>2.2223331714871238e-14</v>
+        <v>2.2203660751411416e-14</v>
       </c>
       <c r="AE27">
-        <v>2.2223331714871238e-14</v>
+        <v>2.2203660751411416e-14</v>
       </c>
       <c r="AF27">
-        <v>2.2223331714871238e-14</v>
+        <v>2.2203660751411416e-14</v>
       </c>
       <c r="AG27">
-        <v>2.9438461448383993e-06</v>
+        <v>2.2203660751411416e-14</v>
       </c>
       <c r="AH27">
-        <v>2.2223331714871238e-14</v>
+        <v>2.2203660751411416e-14</v>
       </c>
       <c r="AI27">
-        <v>0.0019871706898546659</v>
+        <v>0.00045406763905405208</v>
       </c>
       <c r="AJ27">
-        <v>2.2223331714871242e-14</v>
+        <v>2.2203660751411416e-14</v>
       </c>
       <c r="AK27">
-        <v>2.2223331714871242e-14</v>
+        <v>2.2203660751411416e-14</v>
       </c>
       <c r="AL27">
-        <v>2.2223331714871242e-14</v>
+        <v>2.2203660751411416e-14</v>
       </c>
       <c r="AM27">
-        <v>2.2223331714871242e-14</v>
+        <v>2.2203660751411416e-14</v>
       </c>
       <c r="AN27">
-        <v>0.0017436161958788159</v>
+        <v>0.0013514812101837583</v>
       </c>
       <c r="AO27">
-        <v>2.2223331714871242e-14</v>
+        <v>2.2203660751411416e-14</v>
       </c>
       <c r="AP27">
-        <v>2.8983051362478896e-10</v>
+        <v>2.5361306158316916e-09</v>
       </c>
       <c r="AQ27">
-        <v>2.2223331714871242e-14</v>
+        <v>2.2203660751411416e-14</v>
       </c>
       <c r="AR27">
-        <v>2.2223331714871242e-14</v>
+        <v>2.2203660751411416e-14</v>
       </c>
       <c r="AS27">
-        <v>8.6211443767551336e-10</v>
+        <v>4.8773824208696668e-06</v>
       </c>
       <c r="AT27">
-        <v>2.2223331714871242e-14</v>
+        <v>2.2203660751411416e-14</v>
       </c>
       <c r="AU27">
-        <v>2.2223331714871242e-14</v>
+        <v>2.2203660751411416e-14</v>
       </c>
       <c r="AV27">
-        <v>2.2223331714871242e-14</v>
+        <v>2.2203660751411416e-14</v>
       </c>
       <c r="AW27">
-        <v>2.2223331714871242e-14</v>
+        <v>2.2203660751411416e-14</v>
       </c>
       <c r="AX27">
-        <v>2.2223331714871242e-14</v>
+        <v>2.2203660751411416e-14</v>
       </c>
       <c r="AY27">
-        <v>0.00027431253772976482</v>
+        <v>1.6229939429762439e-11</v>
       </c>
       <c r="AZ27">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="s">
-        <v>27</v>
+      <c r="A28" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="B28">
-        <v>3.8024608242696677e-08</v>
+        <v>1.9138481162216573e-07</v>
       </c>
       <c r="C28">
-        <v>2.2202539658231219e-14</v>
+        <v>2.2204550500830895e-14</v>
       </c>
       <c r="D28">
-        <v>2.2202539658231219e-14</v>
+        <v>2.2204550500830895e-14</v>
       </c>
       <c r="E28">
-        <v>2.2202539658231219e-14</v>
+        <v>2.2204550500830895e-14</v>
       </c>
       <c r="F28">
-        <v>2.2202539658231219e-14</v>
+        <v>2.2204550500830895e-14</v>
       </c>
       <c r="G28">
-        <v>2.2202539658231219e-14</v>
+        <v>2.2204550500830895e-14</v>
       </c>
       <c r="H28">
-        <v>2.2202539658231219e-14</v>
+        <v>2.2204550500830895e-14</v>
       </c>
       <c r="I28">
-        <v>2.2202539658231219e-14</v>
+        <v>2.2204550500830895e-14</v>
       </c>
       <c r="J28">
-        <v>2.2202539658231219e-14</v>
+        <v>2.2204550500830895e-14</v>
       </c>
       <c r="K28">
-        <v>2.2202539658231219e-14</v>
+        <v>2.2204550500830895e-14</v>
       </c>
       <c r="L28">
-        <v>2.2202539658231219e-14</v>
+        <v>2.2204550500830895e-14</v>
       </c>
       <c r="M28">
-        <v>2.2202539658231219e-14</v>
+        <v>2.2204550500830895e-14</v>
       </c>
       <c r="N28">
-        <v>2.2202539658231219e-14</v>
+        <v>2.2204550500830895e-14</v>
       </c>
       <c r="O28">
-        <v>2.2202539658231219e-14</v>
+        <v>2.2204550500830895e-14</v>
       </c>
       <c r="P28">
-        <v>2.2202539658231219e-14</v>
+        <v>2.2204550500830895e-14</v>
       </c>
       <c r="Q28">
-        <v>2.2202539658231219e-14</v>
+        <v>2.2204550500830895e-14</v>
       </c>
       <c r="R28">
-        <v>2.2202539658231219e-14</v>
+        <v>2.2204550500830895e-14</v>
       </c>
       <c r="S28">
-        <v>5.5473792944609966e-05</v>
+        <v>0.96686847383736052</v>
       </c>
       <c r="T28">
-        <v>2.2202539658231219e-14</v>
+        <v>2.2204550500830895e-14</v>
       </c>
       <c r="U28">
-        <v>0.99561742480171389</v>
+        <v>2.2204550500830895e-14</v>
       </c>
       <c r="V28">
-        <v>2.2202539658231219e-14</v>
+        <v>2.2204550500830895e-14</v>
       </c>
       <c r="W28">
-        <v>2.2202539658231219e-14</v>
+        <v>2.2204550500830895e-14</v>
       </c>
       <c r="X28">
-        <v>2.2202539658231219e-14</v>
+        <v>2.2204550500830895e-14</v>
       </c>
       <c r="Y28">
-        <v>2.2202539658231219e-14</v>
+        <v>2.2204550500830895e-14</v>
       </c>
       <c r="Z28">
-        <v>2.2202539658231219e-14</v>
+        <v>2.2204550500830895e-14</v>
       </c>
       <c r="AA28">
-        <v>2.2202539658231219e-14</v>
+        <v>2.2204550500830895e-14</v>
       </c>
       <c r="AB28">
-        <v>9.1680360720955533e-07</v>
+        <v>1.2254575766051826e-08</v>
       </c>
       <c r="AC28">
-        <v>2.2202539658231219e-14</v>
+        <v>2.2204550500830895e-14</v>
       </c>
       <c r="AD28">
-        <v>2.2202539658231219e-14</v>
+        <v>2.2204550500830895e-14</v>
       </c>
       <c r="AE28">
-        <v>2.2202539658231219e-14</v>
+        <v>2.2204550500830895e-14</v>
       </c>
       <c r="AF28">
-        <v>2.2202539658231219e-14</v>
+        <v>2.2204550500830895e-14</v>
       </c>
       <c r="AG28">
-        <v>0.0035329226456784621</v>
+        <v>1.8027196255594376e-06</v>
       </c>
       <c r="AH28">
-        <v>2.2202539658231219e-14</v>
+        <v>2.2204550500830895e-14</v>
       </c>
       <c r="AI28">
-        <v>5.1824346935802803e-06</v>
+        <v>0.016161215684596688</v>
       </c>
       <c r="AJ28">
-        <v>2.2202539658231219e-14</v>
+        <v>2.2204550500830895e-14</v>
       </c>
       <c r="AK28">
-        <v>2.2202539658231219e-14</v>
+        <v>2.2204550500830895e-14</v>
       </c>
       <c r="AL28">
-        <v>2.2202539658231219e-14</v>
+        <v>2.2204550500830895e-14</v>
       </c>
       <c r="AM28">
-        <v>2.2202539658231219e-14</v>
+        <v>2.2204550500830895e-14</v>
       </c>
       <c r="AN28">
-        <v>0.00078036347324580285</v>
+        <v>0.016968191784485477</v>
       </c>
       <c r="AO28">
-        <v>2.2202539658231219e-14</v>
+        <v>2.2204550500830895e-14</v>
       </c>
       <c r="AP28">
-        <v>7.6302477816328054e-06</v>
+        <v>2.2204550500830895e-14</v>
       </c>
       <c r="AQ28">
-        <v>2.2202539658231219e-14</v>
+        <v>2.2204550500830895e-14</v>
       </c>
       <c r="AR28">
-        <v>2.2202539658231219e-14</v>
+        <v>2.2204550500830895e-14</v>
       </c>
       <c r="AS28">
-        <v>1.3242216275091301e-09</v>
+        <v>6.0819109857397403e-11</v>
       </c>
       <c r="AT28">
-        <v>2.2202539658231219e-14</v>
+        <v>2.2204550500830895e-14</v>
       </c>
       <c r="AU28">
-        <v>2.2202539658231219e-14</v>
+        <v>2.2204550500830895e-14</v>
       </c>
       <c r="AV28">
-        <v>2.2202539658231219e-14</v>
+        <v>2.2204550500830895e-14</v>
       </c>
       <c r="AW28">
-        <v>2.2202539658231219e-14</v>
+        <v>2.2204550500830895e-14</v>
       </c>
       <c r="AX28">
-        <v>2.2202539658231219e-14</v>
+        <v>2.2204550500830895e-14</v>
       </c>
       <c r="AY28">
-        <v>4.6450616761233691e-08</v>
+        <v>1.1227279261100825e-07</v>
       </c>
       <c r="AZ28">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="s">
-        <v>28</v>
+      <c r="A29" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="B29">
-        <v>1.7770972695115325e-05</v>
+        <v>6.3030877631422656e-11</v>
       </c>
       <c r="C29">
-        <v>2.2204451919830457e-14</v>
+        <v>2.2202419765286639e-14</v>
       </c>
       <c r="D29">
-        <v>2.2204451919830457e-14</v>
+        <v>2.2202419765286639e-14</v>
       </c>
       <c r="E29">
-        <v>2.2204451919830457e-14</v>
+        <v>2.2202419765286639e-14</v>
       </c>
       <c r="F29">
-        <v>2.2204451919830457e-14</v>
+        <v>2.2202419765286639e-14</v>
       </c>
       <c r="G29">
-        <v>2.2204451919830457e-14</v>
+        <v>2.2202419765286639e-14</v>
       </c>
       <c r="H29">
-        <v>2.2204451919830457e-14</v>
+        <v>2.2202419765286639e-14</v>
       </c>
       <c r="I29">
-        <v>2.2204451919830457e-14</v>
+        <v>2.2202419765286639e-14</v>
       </c>
       <c r="J29">
-        <v>2.2204451919830457e-14</v>
+        <v>2.2202419765286639e-14</v>
       </c>
       <c r="K29">
-        <v>2.2204451919830457e-14</v>
+        <v>2.2202419765286639e-14</v>
       </c>
       <c r="L29">
-        <v>2.2204451919830457e-14</v>
+        <v>2.2202419765286639e-14</v>
       </c>
       <c r="M29">
-        <v>2.2204451919830457e-14</v>
+        <v>2.2202419765286639e-14</v>
       </c>
       <c r="N29">
-        <v>2.2204451919830457e-14</v>
+        <v>2.2202419765286639e-14</v>
       </c>
       <c r="O29">
-        <v>2.2204451919830457e-14</v>
+        <v>2.2202419765286639e-14</v>
       </c>
       <c r="P29">
-        <v>0.99998069494724362</v>
+        <v>2.2202419765286639e-14</v>
       </c>
       <c r="Q29">
-        <v>2.2204451919830457e-14</v>
+        <v>2.2202419765286639e-14</v>
       </c>
       <c r="R29">
-        <v>2.2204451919830457e-14</v>
+        <v>2.2202419765286639e-14</v>
       </c>
       <c r="S29">
-        <v>3.8888747023019651e-13</v>
+        <v>9.6649819311865493e-06</v>
       </c>
       <c r="T29">
-        <v>2.2204451919830457e-14</v>
+        <v>2.2202419765286639e-14</v>
       </c>
       <c r="U29">
-        <v>2.2204451919830457e-14</v>
+        <v>2.2202419765286639e-14</v>
       </c>
       <c r="V29">
-        <v>2.2204451919830457e-14</v>
+        <v>2.2202419765286639e-14</v>
       </c>
       <c r="W29">
-        <v>2.2204451919830457e-14</v>
+        <v>2.2202419765286639e-14</v>
       </c>
       <c r="X29">
-        <v>2.2204451919830457e-14</v>
+        <v>2.2202419765286639e-14</v>
       </c>
       <c r="Y29">
-        <v>2.2204451919830457e-14</v>
+        <v>2.2202419765286639e-14</v>
       </c>
       <c r="Z29">
-        <v>2.2204451919830457e-14</v>
+        <v>2.2202419765286639e-14</v>
       </c>
       <c r="AA29">
-        <v>2.2204451919830457e-14</v>
+        <v>0.93074473416916481</v>
       </c>
       <c r="AB29">
-        <v>1.841949720026787e-09</v>
+        <v>8.0191775419927681e-07</v>
       </c>
       <c r="AC29">
-        <v>2.2204451919830457e-14</v>
+        <v>2.2202419765286639e-14</v>
       </c>
       <c r="AD29">
-        <v>2.2204451919830457e-14</v>
+        <v>2.2202419765286639e-14</v>
       </c>
       <c r="AE29">
-        <v>2.2204451919830457e-14</v>
+        <v>2.2202419765286639e-14</v>
       </c>
       <c r="AF29">
-        <v>2.2204451919830457e-14</v>
+        <v>2.2202419765286639e-14</v>
       </c>
       <c r="AG29">
-        <v>2.2204451919830457e-14</v>
+        <v>9.724815607554294e-12</v>
       </c>
       <c r="AH29">
-        <v>2.2204451919830457e-14</v>
+        <v>2.2202419765286639e-14</v>
       </c>
       <c r="AI29">
-        <v>2.2204451919830457e-14</v>
+        <v>1.0894994556439277e-05</v>
       </c>
       <c r="AJ29">
-        <v>2.2204451919830457e-14</v>
+        <v>2.2202419765286639e-14</v>
       </c>
       <c r="AK29">
-        <v>2.2204451919830457e-14</v>
+        <v>2.2202419765286639e-14</v>
       </c>
       <c r="AL29">
-        <v>2.2204451919830457e-14</v>
+        <v>2.2202419765286639e-14</v>
       </c>
       <c r="AM29">
-        <v>2.2204451919830457e-14</v>
+        <v>2.2202419765286639e-14</v>
       </c>
       <c r="AN29">
-        <v>2.2204451919830457e-14</v>
+        <v>0.069233888865701809</v>
       </c>
       <c r="AO29">
-        <v>2.2204451919830457e-14</v>
+        <v>2.2202419765286639e-14</v>
       </c>
       <c r="AP29">
-        <v>7.2544835371448641e-13</v>
+        <v>9.3220759991710191e-10</v>
       </c>
       <c r="AQ29">
-        <v>2.2204451919830457e-14</v>
+        <v>2.2202419765286639e-14</v>
       </c>
       <c r="AR29">
-        <v>2.2204451919830457e-14</v>
+        <v>2.2202419765286639e-14</v>
       </c>
       <c r="AS29">
-        <v>1.5321918109514961e-06</v>
+        <v>1.627999855498531e-09</v>
       </c>
       <c r="AT29">
-        <v>2.2204451919830457e-14</v>
+        <v>2.2202419765286639e-14</v>
       </c>
       <c r="AU29">
-        <v>2.2204451919830457e-14</v>
+        <v>2.2202419765286639e-14</v>
       </c>
       <c r="AV29">
-        <v>2.2204451919830457e-14</v>
+        <v>2.2202419765286639e-14</v>
       </c>
       <c r="AW29">
-        <v>2.2204451919830457e-14</v>
+        <v>2.2202419765286639e-14</v>
       </c>
       <c r="AX29">
-        <v>2.2204451919830457e-14</v>
+        <v>2.2202419765286639e-14</v>
       </c>
       <c r="AY29">
-        <v>4.4231404223764209e-11</v>
+        <v>1.2437040513125405e-08</v>
       </c>
       <c r="AZ29">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="s">
-        <v>29</v>
+      <c r="A30" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="B30">
-        <v>4.9568661135813078e-06</v>
+        <v>1.9212730547342171e-06</v>
       </c>
       <c r="C30">
-        <v>2.220205780823812e-14</v>
+        <v>2.2202400585356229e-14</v>
       </c>
       <c r="D30">
-        <v>2.220205780823812e-14</v>
+        <v>2.2202400585356229e-14</v>
       </c>
       <c r="E30">
-        <v>2.220205780823812e-14</v>
+        <v>2.2202400585356229e-14</v>
       </c>
       <c r="F30">
-        <v>2.220205780823812e-14</v>
+        <v>2.2202400585356229e-14</v>
       </c>
       <c r="G30">
-        <v>2.220205780823812e-14</v>
+        <v>2.2202400585356229e-14</v>
       </c>
       <c r="H30">
-        <v>2.220205780823812e-14</v>
+        <v>2.2202400585356229e-14</v>
       </c>
       <c r="I30">
-        <v>2.220205780823812e-14</v>
+        <v>2.2202400585356229e-14</v>
       </c>
       <c r="J30">
-        <v>2.220205780823812e-14</v>
+        <v>2.2202400585356229e-14</v>
       </c>
       <c r="K30">
-        <v>2.220205780823812e-14</v>
+        <v>2.2202400585356229e-14</v>
       </c>
       <c r="L30">
-        <v>2.220205780823812e-14</v>
+        <v>2.2202400585356229e-14</v>
       </c>
       <c r="M30">
-        <v>2.220205780823812e-14</v>
+        <v>2.2202400585356229e-14</v>
       </c>
       <c r="N30">
-        <v>2.220205780823812e-14</v>
+        <v>2.2202400585356229e-14</v>
       </c>
       <c r="O30">
-        <v>2.220205780823812e-14</v>
+        <v>2.2202400585356229e-14</v>
       </c>
       <c r="P30">
-        <v>2.220205780823812e-14</v>
+        <v>2.2202400585356229e-14</v>
       </c>
       <c r="Q30">
-        <v>2.220205780823812e-14</v>
+        <v>0.95623007064388021</v>
       </c>
       <c r="R30">
-        <v>2.220205780823812e-14</v>
+        <v>2.2202400585356229e-14</v>
       </c>
       <c r="S30">
-        <v>2.220205780823812e-14</v>
+        <v>1.1699190205095614e-06</v>
       </c>
       <c r="T30">
-        <v>2.220205780823812e-14</v>
+        <v>2.2202400585356229e-14</v>
       </c>
       <c r="U30">
-        <v>2.220205780823812e-14</v>
+        <v>2.2202400585356229e-14</v>
       </c>
       <c r="V30">
-        <v>2.220205780823812e-14</v>
+        <v>2.2202400585356229e-14</v>
       </c>
       <c r="W30">
-        <v>2.220205780823812e-14</v>
+        <v>2.2202400585356229e-14</v>
       </c>
       <c r="X30">
-        <v>2.220205780823812e-14</v>
+        <v>2.2202400585356229e-14</v>
       </c>
       <c r="Y30">
-        <v>2.220205780823812e-14</v>
+        <v>2.2202400585356229e-14</v>
       </c>
       <c r="Z30">
-        <v>0.98951605636654993</v>
+        <v>2.2202400585356229e-14</v>
       </c>
       <c r="AA30">
-        <v>2.220205780823812e-14</v>
+        <v>2.2202400585356229e-14</v>
       </c>
       <c r="AB30">
-        <v>2.3789571461779217e-08</v>
+        <v>8.2855872868123299e-10</v>
       </c>
       <c r="AC30">
-        <v>2.220205780823812e-14</v>
+        <v>2.2202400585356229e-14</v>
       </c>
       <c r="AD30">
-        <v>2.220205780823812e-14</v>
+        <v>2.2202400585356229e-14</v>
       </c>
       <c r="AE30">
-        <v>2.220205780823812e-14</v>
+        <v>2.2202400585356229e-14</v>
       </c>
       <c r="AF30">
-        <v>2.220205780823812e-14</v>
+        <v>2.2202400585356229e-14</v>
       </c>
       <c r="AG30">
-        <v>2.220205780823812e-14</v>
+        <v>1.5358122976300293e-06</v>
       </c>
       <c r="AH30">
-        <v>2.220205780823812e-14</v>
+        <v>2.2202400585356229e-14</v>
       </c>
       <c r="AI30">
-        <v>2.6204599532499226e-05</v>
+        <v>2.0240997920733173e-08</v>
       </c>
       <c r="AJ30">
-        <v>2.220205780823812e-14</v>
+        <v>2.2202400585356229e-14</v>
       </c>
       <c r="AK30">
-        <v>2.220205780823812e-14</v>
+        <v>2.2202400585356229e-14</v>
       </c>
       <c r="AL30">
-        <v>0.010448068649338114</v>
+        <v>2.2202400585356229e-14</v>
       </c>
       <c r="AM30">
-        <v>2.220205780823812e-14</v>
+        <v>2.2202400585356229e-14</v>
       </c>
       <c r="AN30">
-        <v>2.4733027857415819e-06</v>
+        <v>0.043748465639888955</v>
       </c>
       <c r="AO30">
-        <v>2.220205780823812e-14</v>
+        <v>2.2202400585356229e-14</v>
       </c>
       <c r="AP30">
-        <v>1.171879516695691e-07</v>
+        <v>3.0565766399238422e-07</v>
       </c>
       <c r="AQ30">
-        <v>2.220205780823812e-14</v>
+        <v>2.2202400585356229e-14</v>
       </c>
       <c r="AR30">
-        <v>2.220205780823812e-14</v>
+        <v>2.2202400585356229e-14</v>
       </c>
       <c r="AS30">
-        <v>2.0949166221849967e-06</v>
+        <v>2.9217258033166353e-11</v>
       </c>
       <c r="AT30">
-        <v>2.220205780823812e-14</v>
+        <v>2.2202400585356229e-14</v>
       </c>
       <c r="AU30">
-        <v>2.220205780823812e-14</v>
+        <v>2.2202400585356229e-14</v>
       </c>
       <c r="AV30">
-        <v>2.220205780823812e-14</v>
+        <v>2.2202400585356229e-14</v>
       </c>
       <c r="AW30">
-        <v>2.220205780823812e-14</v>
+        <v>2.2202400585356229e-14</v>
       </c>
       <c r="AX30">
-        <v>2.220205780823812e-14</v>
+        <v>2.2202400585356229e-14</v>
       </c>
       <c r="AY30">
-        <v>4.3206246163104695e-09</v>
+        <v>1.6509954531989024e-05</v>
       </c>
       <c r="AZ30">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="s">
-        <v>30</v>
+      <c r="A31" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="B31">
-        <v>2.3955568516915216e-05</v>
+        <v>0.46446231627809592</v>
       </c>
       <c r="C31">
-        <v>2.2202478463208352e-14</v>
+        <v>2.2204304168444627e-14</v>
       </c>
       <c r="D31">
-        <v>2.2202478463208352e-14</v>
+        <v>2.2204304168444627e-14</v>
       </c>
       <c r="E31">
-        <v>2.2202478463208352e-14</v>
+        <v>2.2204304168444627e-14</v>
       </c>
       <c r="F31">
-        <v>2.2202478463208352e-14</v>
+        <v>2.2204304168444627e-14</v>
       </c>
       <c r="G31">
-        <v>2.2202478463208352e-14</v>
+        <v>2.2204304168444627e-14</v>
       </c>
       <c r="H31">
-        <v>2.2202478463208352e-14</v>
+        <v>2.2204304168444627e-14</v>
       </c>
       <c r="I31">
-        <v>2.2202478463208352e-14</v>
+        <v>2.2204304168444627e-14</v>
       </c>
       <c r="J31">
-        <v>2.2202478463208352e-14</v>
+        <v>2.2204304168444627e-14</v>
       </c>
       <c r="K31">
-        <v>2.2202478463208352e-14</v>
+        <v>2.2204304168444627e-14</v>
       </c>
       <c r="L31">
-        <v>2.2202478463208352e-14</v>
+        <v>2.2204304168444627e-14</v>
       </c>
       <c r="M31">
-        <v>2.2202478463208352e-14</v>
+        <v>2.2204304168444627e-14</v>
       </c>
       <c r="N31">
-        <v>2.2202478463208352e-14</v>
+        <v>2.2204304168444627e-14</v>
       </c>
       <c r="O31">
-        <v>2.2202478463208352e-14</v>
+        <v>2.2204304168444627e-14</v>
       </c>
       <c r="P31">
-        <v>2.2202478463208352e-14</v>
+        <v>2.2204304168444627e-14</v>
       </c>
       <c r="Q31">
-        <v>2.2202478463208352e-14</v>
+        <v>2.2204304168444627e-14</v>
       </c>
       <c r="R31">
-        <v>2.2202478463208352e-14</v>
+        <v>2.2204304168444627e-14</v>
       </c>
       <c r="S31">
-        <v>0.98572084001533455</v>
+        <v>2.2204304168444627e-14</v>
       </c>
       <c r="T31">
-        <v>2.2202478463208352e-14</v>
+        <v>2.2204304168444627e-14</v>
       </c>
       <c r="U31">
-        <v>2.2202478463208352e-14</v>
+        <v>2.2204304168444627e-14</v>
       </c>
       <c r="V31">
-        <v>2.2202478463208352e-14</v>
+        <v>2.2204304168444627e-14</v>
       </c>
       <c r="W31">
-        <v>2.2202478463208352e-14</v>
+        <v>2.2204304168444627e-14</v>
       </c>
       <c r="X31">
-        <v>2.2202478463208352e-14</v>
+        <v>2.2204304168444627e-14</v>
       </c>
       <c r="Y31">
-        <v>2.2202478463208352e-14</v>
+        <v>2.2204304168444627e-14</v>
       </c>
       <c r="Z31">
-        <v>2.2202478463208352e-14</v>
+        <v>2.2204304168444627e-14</v>
       </c>
       <c r="AA31">
-        <v>2.2202478463208352e-14</v>
+        <v>2.2204304168444627e-14</v>
       </c>
       <c r="AB31">
-        <v>3.5787623631157548e-09</v>
+        <v>0.53553768101101751</v>
       </c>
       <c r="AC31">
-        <v>2.2202478463208352e-14</v>
+        <v>2.2204304168444627e-14</v>
       </c>
       <c r="AD31">
-        <v>2.2202478463208352e-14</v>
+        <v>2.2204304168444627e-14</v>
       </c>
       <c r="AE31">
-        <v>2.2202478463208352e-14</v>
+        <v>2.2204304168444627e-14</v>
       </c>
       <c r="AF31">
-        <v>2.2202478463208352e-14</v>
+        <v>2.2204304168444627e-14</v>
       </c>
       <c r="AG31">
-        <v>0.0007721665534531336</v>
+        <v>2.2204304168444627e-14</v>
       </c>
       <c r="AH31">
-        <v>2.2202478463208352e-14</v>
+        <v>2.2204304168444627e-14</v>
       </c>
       <c r="AI31">
-        <v>9.7449784418384097e-05</v>
+        <v>2.2204304168444627e-14</v>
       </c>
       <c r="AJ31">
-        <v>2.2202478463208352e-14</v>
+        <v>2.2204304168444627e-14</v>
       </c>
       <c r="AK31">
-        <v>2.2202478463208352e-14</v>
+        <v>2.2204304168444627e-14</v>
       </c>
       <c r="AL31">
-        <v>2.2202478463208352e-14</v>
+        <v>2.2204304168444627e-14</v>
       </c>
       <c r="AM31">
-        <v>2.2202478463208352e-14</v>
+        <v>2.2204304168444627e-14</v>
       </c>
       <c r="AN31">
-        <v>0.013383140665535998</v>
+        <v>5.3964787961933336e-12</v>
       </c>
       <c r="AO31">
-        <v>2.2202478463208352e-14</v>
+        <v>2.2204304168444627e-14</v>
       </c>
       <c r="AP31">
-        <v>3.8326775053547203e-10</v>
+        <v>2.2204304168444627e-14</v>
       </c>
       <c r="AQ31">
-        <v>2.2202478463208352e-14</v>
+        <v>2.2204304168444627e-14</v>
       </c>
       <c r="AR31">
-        <v>2.2202478463208352e-14</v>
+        <v>2.2204304168444627e-14</v>
       </c>
       <c r="AS31">
-        <v>2.550437298762332e-10</v>
+        <v>1.7501788257917805e-09</v>
       </c>
       <c r="AT31">
-        <v>2.2202478463208352e-14</v>
+        <v>2.2204304168444627e-14</v>
       </c>
       <c r="AU31">
-        <v>2.2202478463208352e-14</v>
+        <v>2.2204304168444627e-14</v>
       </c>
       <c r="AV31">
-        <v>2.2202478463208352e-14</v>
+        <v>2.2204304168444627e-14</v>
       </c>
       <c r="AW31">
-        <v>2.2202478463208352e-14</v>
+        <v>2.2204304168444627e-14</v>
       </c>
       <c r="AX31">
-        <v>2.2202478463208352e-14</v>
+        <v>2.2204304168444627e-14</v>
       </c>
       <c r="AY31">
-        <v>2.4431947569428453e-06</v>
+        <v>9.5431217815980994e-10</v>
       </c>
       <c r="AZ31">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32">
